--- a/terms/metapodialTerms.xlsx
+++ b/terms/metapodialTerms.xlsx
@@ -5,20 +5,26 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B7BC5A-AD76-7644-A4EF-7D8E6DC36441}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02AEB0A5-7466-5B40-AACC-F5E666551DD1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="17500" activeTab="2" xr2:uid="{4B25A08D-3FDD-7049-9343-BD8F323342BE}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16640" activeTab="1" xr2:uid="{4B25A08D-3FDD-7049-9343-BD8F323342BE}"/>
   </bookViews>
   <sheets>
     <sheet name="metapodial" sheetId="1" r:id="rId1"/>
-    <sheet name="metacarpal" sheetId="2" r:id="rId2"/>
-    <sheet name="metatarsal" sheetId="3" r:id="rId3"/>
-    <sheet name="structures" sheetId="4" r:id="rId4"/>
+    <sheet name="metapodial axis" sheetId="5" r:id="rId2"/>
+    <sheet name="metapodial AB" sheetId="6" r:id="rId3"/>
+    <sheet name="metacarpal" sheetId="2" r:id="rId4"/>
+    <sheet name="metacarpal axis" sheetId="7" r:id="rId5"/>
+    <sheet name="metacarpal AB" sheetId="8" r:id="rId6"/>
+    <sheet name="metatarsal" sheetId="3" r:id="rId7"/>
+    <sheet name="metatarsal axis" sheetId="10" r:id="rId8"/>
+    <sheet name="metatarsal AB" sheetId="9" r:id="rId9"/>
+    <sheet name="structures" sheetId="4" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="525">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -841,6 +847,768 @@
   </si>
   <si>
     <t>Metatarsal IV length without plantar projection</t>
+  </si>
+  <si>
+    <t>Trait</t>
+  </si>
+  <si>
+    <t>Point A</t>
+  </si>
+  <si>
+    <t>Point B</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>subclass</t>
+  </si>
+  <si>
+    <t>Metapodial III supra-articular breadth; M10</t>
+  </si>
+  <si>
+    <t>Metapodial IV length without plantar projection; LeP</t>
+  </si>
+  <si>
+    <t>anterior proximal facet for the metapodial-carpal/tarsal bone joint</t>
+  </si>
+  <si>
+    <t>Metapodial length without plantar projection; LeP</t>
+  </si>
+  <si>
+    <t>Metacarpal III supra-articular breadth; M10</t>
+  </si>
+  <si>
+    <t>Metacarpal IV length without plantar projection; LeP</t>
+  </si>
+  <si>
+    <t>anterior proximal facet for the carpometacarpal joint</t>
+  </si>
+  <si>
+    <t>Metacarpal III length without plantar projection; LeP</t>
+  </si>
+  <si>
+    <t>Metatarsal III supra-articular breadth; M10</t>
+  </si>
+  <si>
+    <t>Metatarsal IV length without plantar projection; LeP</t>
+  </si>
+  <si>
+    <t>anterior proximal facet for the tarsometatarsal joint</t>
+  </si>
+  <si>
+    <t>Axis</t>
+  </si>
+  <si>
+    <t>Pattern name</t>
+  </si>
+  <si>
+    <t>Metacarpal III greatest breadth distal; M11; GL1</t>
+  </si>
+  <si>
+    <t>medial-lateral axis</t>
+  </si>
+  <si>
+    <t>distal surface some metacarpal bone of digit 3</t>
+  </si>
+  <si>
+    <t>Metacarpal II distal articular breadth; M5; Bd</t>
+  </si>
+  <si>
+    <t>distal surface some metacarpal bone of digit 2</t>
+  </si>
+  <si>
+    <t>Metacarpal IV distal articular breadth; M5; Bd</t>
+  </si>
+  <si>
+    <t>distal surface some metacarpal bone of digit 4</t>
+  </si>
+  <si>
+    <t>Metacarpal II distal articular depth; M6</t>
+  </si>
+  <si>
+    <t>anterior-posterior axis</t>
+  </si>
+  <si>
+    <t>Metacarpal IV distal articular depth; M6</t>
+  </si>
+  <si>
+    <t>Metacarpal III greatest depth proximal; M6</t>
+  </si>
+  <si>
+    <t>proximal surface some metacarpal bone of digit 3</t>
+  </si>
+  <si>
+    <t>Metacarpal II greatest depth proximal; M4</t>
+  </si>
+  <si>
+    <t>proximal surface some metacarpal bone of digit 2</t>
+  </si>
+  <si>
+    <t>Metacarpal IV greatest depth proximal; M4</t>
+  </si>
+  <si>
+    <t>proximal surface some metacarpal bone of digit 4</t>
+  </si>
+  <si>
+    <t>Metacarpal greatest length; M1; GL</t>
+  </si>
+  <si>
+    <t>proximal-distal axis</t>
+  </si>
+  <si>
+    <t>metacarpal bone</t>
+  </si>
+  <si>
+    <t>Metacarpal II greatest length; M1; GL</t>
+  </si>
+  <si>
+    <t>metacarpal bone of digit 2</t>
+  </si>
+  <si>
+    <t>Metacarpal III greatest length; M1; GL</t>
+  </si>
+  <si>
+    <t>metacarpal bone of digit 3</t>
+  </si>
+  <si>
+    <t>Metacarpal IV greatest length; M1; GL</t>
+  </si>
+  <si>
+    <t>metacarpal bone of digit 4</t>
+  </si>
+  <si>
+    <t>Metatarsal II proximal maximal breadth; M3; SD</t>
+  </si>
+  <si>
+    <t>proximal surface some metatarsal bone of digit 2</t>
+  </si>
+  <si>
+    <t>Metatarsal IV proximal maximal breadth; M3; SD</t>
+  </si>
+  <si>
+    <t>proximal surface some metatarsal bone of digit 4</t>
+  </si>
+  <si>
+    <t>Metacarpal II proximal maximal breadth; M3; SD</t>
+  </si>
+  <si>
+    <t>Metacarpal IV proximal maximal breadth; M3; SD</t>
+  </si>
+  <si>
+    <t>Metatarsal III greatest breadth distal; M1; GL1</t>
+  </si>
+  <si>
+    <t>distal surface some metatarsal bone of digit 3</t>
+  </si>
+  <si>
+    <t>Metatarsal II distal articular breadth; M5; Bp</t>
+  </si>
+  <si>
+    <t>distal surface some metatarsal bone of digit 2</t>
+  </si>
+  <si>
+    <t>Metatarsal IV distal articular breadth; M5; Bp</t>
+  </si>
+  <si>
+    <t>distal surface some metatarsal bone of digit 4</t>
+  </si>
+  <si>
+    <t>Metatarsal III proximal articular breadth; M5; Bp</t>
+  </si>
+  <si>
+    <t>proximal surface some metatarsal bone of digit 3</t>
+  </si>
+  <si>
+    <t>Metacarpal III minimal breadth; M3; SD</t>
+  </si>
+  <si>
+    <t>anterior surface some metacarpal bone of digit 3</t>
+  </si>
+  <si>
+    <t>Metatarsal III minimal breadth; M3; SD</t>
+  </si>
+  <si>
+    <t>anterior surface some metatarsal bone of digit 3</t>
+  </si>
+  <si>
+    <t>Metatarsal II distal articular depth; M6</t>
+  </si>
+  <si>
+    <t>Metatarsal IV distal articular depth; M6</t>
+  </si>
+  <si>
+    <t>Metatarsal III greatest depth proximal; M6</t>
+  </si>
+  <si>
+    <t>Metatarsal II greatest depth proximal; M4</t>
+  </si>
+  <si>
+    <t>Metatarsal IV greatest depth proximal; M4</t>
+  </si>
+  <si>
+    <t>Metatarsal greatest length; M1; GL</t>
+  </si>
+  <si>
+    <t>metatarsal bone</t>
+  </si>
+  <si>
+    <t>Metatarsal II greatest length; M1; GL</t>
+  </si>
+  <si>
+    <t>metatarsal bone of digit 2</t>
+  </si>
+  <si>
+    <t>Metatarsal III greatest length; M1; GL</t>
+  </si>
+  <si>
+    <t>metatarsal bone of digit 3</t>
+  </si>
+  <si>
+    <t>Metatarsal IV greatest length; M1; GL</t>
+  </si>
+  <si>
+    <t>metatarsal bone of digit 4</t>
+  </si>
+  <si>
+    <t>Metacarpal III distal maximal depth of keel; M12; GL2</t>
+  </si>
+  <si>
+    <t>distal keel of metacarpal bone of digit 3</t>
+  </si>
+  <si>
+    <t>Metatarsal III distal maximal depth of keel; M12; GL2</t>
+  </si>
+  <si>
+    <t>distal keel of metatarsal bone of digit 3</t>
+  </si>
+  <si>
+    <t>Metatarsal III distal minimum depth of lateral condyle: M13; GL3</t>
+  </si>
+  <si>
+    <t>lateral condyle of metatarsal bone of digit 3</t>
+  </si>
+  <si>
+    <t>Metatarsal III distal maximal depth of medial condyle: M14; GL4</t>
+  </si>
+  <si>
+    <t>medial condyle of metatarsal bone of digit 3</t>
+  </si>
+  <si>
+    <t>Metacarpal III distal minimum depth of lateral condyle: M13; GL3</t>
+  </si>
+  <si>
+    <t>lateral condyle of metacarpal bone of digit 3</t>
+  </si>
+  <si>
+    <t>Metacarpal III distal maximal depth of medial condyle: M14; GL4</t>
+  </si>
+  <si>
+    <t>medial condyle of metacarpal bone of digit 3</t>
+  </si>
+  <si>
+    <t>Metacarpal III proximal articular breadth; M5; Bp</t>
+  </si>
+  <si>
+    <t>Metacarpal III medial length; M2</t>
+  </si>
+  <si>
+    <t>medial surface some metacarpal bone of digit 3</t>
+  </si>
+  <si>
+    <t>Metacarpal II minimal depth of diaphysis; M2</t>
+  </si>
+  <si>
+    <t>medial surface some metacarpal bone of digit 2</t>
+  </si>
+  <si>
+    <t>Metacarpal IV minimal depth of diaphysis; M2</t>
+  </si>
+  <si>
+    <t>medial surface some metacarpal bone of digit 4</t>
+  </si>
+  <si>
+    <t>Metatarsal III medial length; M2</t>
+  </si>
+  <si>
+    <t>Metatarsal II minimal depth of diaphysis; M2</t>
+  </si>
+  <si>
+    <t>medial surface osome metatarsal bone of digit 2</t>
+  </si>
+  <si>
+    <t>Metatarsal IV minimal depth of diaphysis; M2</t>
+  </si>
+  <si>
+    <t>medial surface some metatarsal bone of digit 4</t>
+  </si>
+  <si>
+    <t>Metatarsal III breadth of facet for fourth tarsal; M8</t>
+  </si>
+  <si>
+    <t>Metacarpal III breadth of anterior facet for fourth carpal; M8</t>
+  </si>
+  <si>
+    <t>Metacarpal III breadth of proximal facet for second carpal; M9</t>
+  </si>
+  <si>
+    <t>Metatarsal III breadth of proximal facet for second tarsal; M9</t>
+  </si>
+  <si>
+    <t>Metacarpal III breadth of posterior facet for fourth carpal; M16; GL6</t>
+  </si>
+  <si>
+    <t>Metacarpal III depth; M4</t>
+  </si>
+  <si>
+    <t>lateral surface some metacarpal bone of digit 3</t>
+  </si>
+  <si>
+    <t>Metatarsal III depth; M4</t>
+  </si>
+  <si>
+    <t>lateral surface some metatarsal bone of digit 3</t>
+  </si>
+  <si>
+    <t>Metatarsal III distal articular breadth; M11</t>
+  </si>
+  <si>
+    <t>Metacarpal III distal articular breadth; M11</t>
+  </si>
+  <si>
+    <t>Metapodial III+IV greatest length; GL</t>
+  </si>
+  <si>
+    <t>fused metapodial bones 3 and 4</t>
+  </si>
+  <si>
+    <t>Metapodial III+IV proximal breadth; Bp</t>
+  </si>
+  <si>
+    <t>proximal surface some fused metapodial bones 3 and 4</t>
+  </si>
+  <si>
+    <t>Metapodial III+IV proximal depth; Dp</t>
+  </si>
+  <si>
+    <t>Metapodial III+IV smallest diaphysis breadth; SD</t>
+  </si>
+  <si>
+    <t>diaphysis some fused metapodial bones 3 ad 4</t>
+  </si>
+  <si>
+    <t>Metapodial III+IV smallest diaphysis circumference; CD</t>
+  </si>
+  <si>
+    <t>Metapodial III+IV distal breadth; Bd</t>
+  </si>
+  <si>
+    <t>distal surface some fused metapodial 3 and 4</t>
+  </si>
+  <si>
+    <t>Metapodial III+IV distal depth; Dd</t>
+  </si>
+  <si>
+    <t>Metacarpal III+IV greatest length; GL</t>
+  </si>
+  <si>
+    <t>fused metacarpal bones 3 and 4</t>
+  </si>
+  <si>
+    <t>Metacarpal III+IV proximal breadth; Bp</t>
+  </si>
+  <si>
+    <t>proximal surface some fused metacarpal bones 3 and 4</t>
+  </si>
+  <si>
+    <t>Metacarpal III+IV proximal depth; Dp</t>
+  </si>
+  <si>
+    <t>Metacarpal III+IV smallest diaphysis breadth; SD</t>
+  </si>
+  <si>
+    <t>diaphysis some fused metacarpal bones 3 ad 4</t>
+  </si>
+  <si>
+    <t>Metacarpal III+IV smallest diaphysis circumference; CD</t>
+  </si>
+  <si>
+    <t>Metacarpal III+IV distal breadth; Bd</t>
+  </si>
+  <si>
+    <t>distal surface some fused metapodial bones 3 and 4</t>
+  </si>
+  <si>
+    <t>Metacarpal III+IV distal depth; Dd</t>
+  </si>
+  <si>
+    <t>Metatarsal III+IV greatest length; GL</t>
+  </si>
+  <si>
+    <t>fused metatarsal bones 3 and 4</t>
+  </si>
+  <si>
+    <t>Metatarsal III+IV proximal breadth; Bp</t>
+  </si>
+  <si>
+    <t>proximal surface some fused metatarsal bones 3 and 4</t>
+  </si>
+  <si>
+    <t>Metatarsal III+IV proximal depth; Dp</t>
+  </si>
+  <si>
+    <t>Metatarsal III+IV smallest diaphysis breadth; SD</t>
+  </si>
+  <si>
+    <t>diaphysis some fused metatarsal bones 3 and 4</t>
+  </si>
+  <si>
+    <t>Metatarsal III+IV smallest diaphysis circumference; CD</t>
+  </si>
+  <si>
+    <t>Metatarsal III+IV distal breadth; Bd</t>
+  </si>
+  <si>
+    <t>distal surface some fused metatarsal bones 3 and 4</t>
+  </si>
+  <si>
+    <t>Metatarsal III+IV distal depth; Dd</t>
+  </si>
+  <si>
+    <t>Metapodial greatest length; GL; M1</t>
+  </si>
+  <si>
+    <t>metapodial bone</t>
+  </si>
+  <si>
+    <t>Metapodial greatest length of lateral part; GLl</t>
+  </si>
+  <si>
+    <t>lateral surface some fused metapodial bones 3 and 4</t>
+  </si>
+  <si>
+    <t>Metapodial proximal breadth; Bp</t>
+  </si>
+  <si>
+    <t>proximal surface some metapodial bone</t>
+  </si>
+  <si>
+    <t>Metapodial proximal depth; Dp</t>
+  </si>
+  <si>
+    <t>Metapodial smallest diaphysis breadth; SD</t>
+  </si>
+  <si>
+    <t>diaphysis some metapodial bone</t>
+  </si>
+  <si>
+    <t>Metapodial smallest diaphysis circumference; CD</t>
+  </si>
+  <si>
+    <t>Metapodial distal breadth; Bd</t>
+  </si>
+  <si>
+    <t>distal surface some metapodial bone</t>
+  </si>
+  <si>
+    <t>Metapodial distal depth; Dd</t>
+  </si>
+  <si>
+    <t>Metacarpal IV greatest length; GL; M1</t>
+  </si>
+  <si>
+    <t>Metacarpal IV proximal breadth; Bp; M3</t>
+  </si>
+  <si>
+    <t>Metacarpal IV breadth at middle of diaphysis; B</t>
+  </si>
+  <si>
+    <t>diaphysis some metacarpal bone of digit 4</t>
+  </si>
+  <si>
+    <t>Metacarpal IV distal breadth; Bd; M5</t>
+  </si>
+  <si>
+    <t>Metatarsal IV greatest length; GL; M1</t>
+  </si>
+  <si>
+    <t>Metatarsal IV proximal breadth; Bp; M3</t>
+  </si>
+  <si>
+    <t>Metatarsal IV breadth at middle of diaphysis; B</t>
+  </si>
+  <si>
+    <t>diaphysis some metatarsal bone of digit 4</t>
+  </si>
+  <si>
+    <t>Metatarsal IV distal breadth; Bd; M5</t>
+  </si>
+  <si>
+    <t>Metapodial IV greatest length; GL; M1</t>
+  </si>
+  <si>
+    <t>metapodial bone of digit 4</t>
+  </si>
+  <si>
+    <t>Metapodial IV proximal breadth; Bp; M3</t>
+  </si>
+  <si>
+    <t>proximal surface some metapodial bone of digit 4</t>
+  </si>
+  <si>
+    <t>Metapodial IV breadth at middle of diaphysis; B</t>
+  </si>
+  <si>
+    <t>diaphysis some metapodial bone of digit 4</t>
+  </si>
+  <si>
+    <t>Metapodial IV distal breadth; Bd; M5</t>
+  </si>
+  <si>
+    <t>distal surface some metapodial bone of digit 4</t>
+  </si>
+  <si>
+    <t>Metapodial depth at middle of diaphysis; DD</t>
+  </si>
+  <si>
+    <t>Metacarpal III depth at middle of diaphysis; DD; M4</t>
+  </si>
+  <si>
+    <t>diaphysis some metacarpal bone of digit 3</t>
+  </si>
+  <si>
+    <t>Metapodial II greatest length; GL; M1</t>
+  </si>
+  <si>
+    <t>metapodial bone of digit 2</t>
+  </si>
+  <si>
+    <t>Metapodial V greatest length; GL</t>
+  </si>
+  <si>
+    <t>metapodial bone of digit 5</t>
+  </si>
+  <si>
+    <t>Metacarpal V greatest length; GL</t>
+  </si>
+  <si>
+    <t>metacarpal bone of digit 5</t>
+  </si>
+  <si>
+    <t>Metatarsal V greatest length; GL</t>
+  </si>
+  <si>
+    <t>metatarsal bone of digit 5</t>
+  </si>
+  <si>
+    <t>Metapodial V distal breadth; Bd</t>
+  </si>
+  <si>
+    <t>distal surface some metapodial bone of digit 5</t>
+  </si>
+  <si>
+    <t>Metacarpal V distal breadth; Bd</t>
+  </si>
+  <si>
+    <t>distal surface some metacarpal bone of digit 5</t>
+  </si>
+  <si>
+    <t>Metatarsal V distal breadth; Bd</t>
+  </si>
+  <si>
+    <t>distal surface some metatarsal bone of digit 5</t>
+  </si>
+  <si>
+    <t>Metapodial III greatest length of lateral part; GLl</t>
+  </si>
+  <si>
+    <t>lateral surface some metapodial bone of digit 3</t>
+  </si>
+  <si>
+    <t>Metapodial III proximal depth; Dp; M6</t>
+  </si>
+  <si>
+    <t>proximal surface some metapodial bone of digit 3</t>
+  </si>
+  <si>
+    <t>Metapodial III smallest diaphysis circumference; CD</t>
+  </si>
+  <si>
+    <t>diaphysis some metapodial bone of digit 3</t>
+  </si>
+  <si>
+    <t>Metapodial III distal breadth; Bd; M11</t>
+  </si>
+  <si>
+    <t>distal surface some metapodial bone of digit 3</t>
+  </si>
+  <si>
+    <t>Metacarpal III greatest length of lateral part; GLl</t>
+  </si>
+  <si>
+    <t>Metacarpal III proximal depth; Dp; M6</t>
+  </si>
+  <si>
+    <t>Metacarpal III smallest diaphysis circumference; CD</t>
+  </si>
+  <si>
+    <t>Metacarpal III distal breadth; Bd; M11</t>
+  </si>
+  <si>
+    <t>Metatarsal III greatest length of lateral part; GLl</t>
+  </si>
+  <si>
+    <t>Metatarsal III proximal depth; Dp; M6</t>
+  </si>
+  <si>
+    <t>Metatarsal III smallest diaphysis circumference; CD</t>
+  </si>
+  <si>
+    <t>diaphysis some metatarsal bone of digit 3</t>
+  </si>
+  <si>
+    <t>Metatarsal III distal breadth; Bd; M11</t>
+  </si>
+  <si>
+    <t>distal surface some metarsal bone of digit 3</t>
+  </si>
+  <si>
+    <t>Metapodial II minimal depth of diaphysis; M2</t>
+  </si>
+  <si>
+    <t>medial surface of some metapodial bone of digit 2</t>
+  </si>
+  <si>
+    <t>Metapodial IV minimal depth of diaphysis; M2</t>
+  </si>
+  <si>
+    <t>medial surface of some metapodial bone of digit 4</t>
+  </si>
+  <si>
+    <t>Metapodial III medial length; M2</t>
+  </si>
+  <si>
+    <t>medial surface of some metapodial bone of digit 3</t>
+  </si>
+  <si>
+    <t>Metapodial II proximal maximal breadth; M3; SD</t>
+  </si>
+  <si>
+    <t>proximal surface some metapodial bone of digit 2</t>
+  </si>
+  <si>
+    <t>Metapodial IV proximal maximal breadth; M3; SD</t>
+  </si>
+  <si>
+    <t>Metapodiall III minimal breadth; M3; SD</t>
+  </si>
+  <si>
+    <t>anterior surface some metapodial bone of digit 3</t>
+  </si>
+  <si>
+    <t>Metapodiall II greatest depth proximal; M4</t>
+  </si>
+  <si>
+    <t>Metapodiall IV greatest depth proximal; M4</t>
+  </si>
+  <si>
+    <t>Metapodial III depth; M4</t>
+  </si>
+  <si>
+    <t>Metapodial II distal articular breadth; M5; Bp</t>
+  </si>
+  <si>
+    <t>distal surface some metapodial bone of digit 2</t>
+  </si>
+  <si>
+    <t>Metapodial IV distal articular breadth; M5; Bp</t>
+  </si>
+  <si>
+    <t>Metapodial III proximal articular breadth; M5; Bp</t>
+  </si>
+  <si>
+    <t>Metapodial II distal articular depth; M6</t>
+  </si>
+  <si>
+    <t>distal surface of some metapodial bone of digit 2</t>
+  </si>
+  <si>
+    <t>Metapodial IV distal articular depth; M6</t>
+  </si>
+  <si>
+    <t>distal surface of some metapodial bone of digit 4</t>
+  </si>
+  <si>
+    <t>Metapodial III greatest depth proximal; M6</t>
+  </si>
+  <si>
+    <t>Metapodial III distal articular breadth; M11</t>
+  </si>
+  <si>
+    <t>Metapodial III distal maximal depth of keel; M12; GL2</t>
+  </si>
+  <si>
+    <t>distal keel of metapodial bone of digit 3</t>
+  </si>
+  <si>
+    <t>Metapodial III distal minimum depth of lateral condyle: M13; GL3</t>
+  </si>
+  <si>
+    <t>lateral condyle of metapodial bone of digit 3</t>
+  </si>
+  <si>
+    <t>Metapodial III distal maximal depth of medial condyle: M14; GL4</t>
+  </si>
+  <si>
+    <t>medial condyle of metapodial bone of digit 3</t>
+  </si>
+  <si>
+    <t>Metatarsal breadth of the distal facet</t>
+  </si>
+  <si>
+    <t>Metacarpal smallest diameter sagittal plane (width; AP)</t>
+  </si>
+  <si>
+    <t>Metacarpal smallest diameter transverse plane (depth; ML)</t>
+  </si>
+  <si>
+    <t>Metatarsal smallest diameter sagittal plane</t>
+  </si>
+  <si>
+    <t>Metatarsal smallest diameter transverse plane</t>
+  </si>
+  <si>
+    <t>metapodial length lateral</t>
+  </si>
+  <si>
+    <t>metapodial greatest length lateral</t>
+  </si>
+  <si>
+    <t>metapodial diaphysis circumference</t>
+  </si>
+  <si>
+    <t>metapodial diaphysis depth</t>
+  </si>
+  <si>
+    <t>metapodial distal breadth</t>
+  </si>
+  <si>
+    <t>metacarpal III diameter of facet for third carpal</t>
+  </si>
+  <si>
+    <t>metacarpal III supra-articular breadth; M10</t>
+  </si>
+  <si>
+    <t>metatarsal III supra-articular breadth; M10</t>
+  </si>
+  <si>
+    <t>metatarsal III diameter of facet for third tarsal</t>
+  </si>
+  <si>
+    <t>metapodial proximal depth</t>
+  </si>
+  <si>
+    <t>metapodial length without plantar projection</t>
   </si>
 </sst>
 </file>
@@ -1835,7 +2603,1131 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C69CCF6-5492-0A4C-9378-BA66BC6E8B2A}">
+  <dimension ref="A1:D34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C10" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>190</v>
+      </c>
+      <c r="C11" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>192</v>
+      </c>
+      <c r="C12" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>194</v>
+      </c>
+      <c r="C13" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>196</v>
+      </c>
+      <c r="C14" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>198</v>
+      </c>
+      <c r="C15" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>200</v>
+      </c>
+      <c r="C16" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>202</v>
+      </c>
+      <c r="C17" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>204</v>
+      </c>
+      <c r="C18" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>206</v>
+      </c>
+      <c r="C19" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>208</v>
+      </c>
+      <c r="C20" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>210</v>
+      </c>
+      <c r="C21" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>212</v>
+      </c>
+      <c r="C22" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>214</v>
+      </c>
+      <c r="C23" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>216</v>
+      </c>
+      <c r="C24" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>218</v>
+      </c>
+      <c r="C25" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>220</v>
+      </c>
+      <c r="C26" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>222</v>
+      </c>
+      <c r="C27" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>224</v>
+      </c>
+      <c r="C28" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>226</v>
+      </c>
+      <c r="C29" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>228</v>
+      </c>
+      <c r="C30" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>230</v>
+      </c>
+      <c r="C31" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>232</v>
+      </c>
+      <c r="C32" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>234</v>
+      </c>
+      <c r="C33" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>236</v>
+      </c>
+      <c r="C34" t="s">
+        <v>237</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F5040D-4511-B642-BECA-8C8AF44B1A68}">
+  <dimension ref="A1:D54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D2" t="str">
+        <f>"line along "&amp;B2&amp;" of "&amp;C2</f>
+        <v>line along anterior-posterior axis of diaphysis some metapodial bone</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C3" t="s">
+        <v>424</v>
+      </c>
+      <c r="D3" t="str">
+        <f>"line along "&amp;B3&amp;" of "&amp;C3</f>
+        <v>line along medial-lateral axis of distal surface some metapodial bone</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C4" t="s">
+        <v>424</v>
+      </c>
+      <c r="D4" t="str">
+        <f>"line along "&amp;B4&amp;" of "&amp;C4</f>
+        <v>line along anterior-posterior axis of distal surface some metapodial bone</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C5" t="s">
+        <v>416</v>
+      </c>
+      <c r="D5" t="str">
+        <f>"line along "&amp;B5&amp;" of "&amp;C5</f>
+        <v>line along proximal-distal axis of lateral surface some fused metapodial bones 3 and 4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B6" t="s">
+        <v>306</v>
+      </c>
+      <c r="C6" t="s">
+        <v>414</v>
+      </c>
+      <c r="D6" t="str">
+        <f>"line along "&amp;B6&amp;" of "&amp;C6</f>
+        <v>line along proximal-distal axis of metapodial bone</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B7" t="s">
+        <v>290</v>
+      </c>
+      <c r="C7" t="s">
+        <v>494</v>
+      </c>
+      <c r="D7" t="str">
+        <f>"line along "&amp;B7&amp;" of "&amp;C7</f>
+        <v>line along medial-lateral axis of distal surface some metapodial bone of digit 2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B8" t="s">
+        <v>297</v>
+      </c>
+      <c r="C8" t="s">
+        <v>498</v>
+      </c>
+      <c r="D8" t="str">
+        <f>"line along "&amp;B8&amp;" of "&amp;C8</f>
+        <v>line along anterior-posterior axis of distal surface of some metapodial bone of digit 2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B9" t="s">
+        <v>306</v>
+      </c>
+      <c r="C9" t="s">
+        <v>448</v>
+      </c>
+      <c r="D9" t="str">
+        <f>"line along "&amp;B9&amp;" of "&amp;C9</f>
+        <v>line along proximal-distal axis of metapodial bone of digit 2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B10" t="s">
+        <v>297</v>
+      </c>
+      <c r="C10" t="s">
+        <v>480</v>
+      </c>
+      <c r="D10" t="str">
+        <f>"line along "&amp;B10&amp;" of "&amp;C10</f>
+        <v>line along anterior-posterior axis of medial surface of some metapodial bone of digit 2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B11" t="s">
+        <v>290</v>
+      </c>
+      <c r="C11" t="s">
+        <v>486</v>
+      </c>
+      <c r="D11" t="str">
+        <f>"line along "&amp;B11&amp;" of "&amp;C11</f>
+        <v>line along medial-lateral axis of proximal surface some metapodial bone of digit 2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B12" t="s">
+        <v>297</v>
+      </c>
+      <c r="C12" t="s">
+        <v>462</v>
+      </c>
+      <c r="D12" t="str">
+        <f>"line along "&amp;B12&amp;" of "&amp;C12</f>
+        <v>line along anterior-posterior axis of lateral surface some metapodial bone of digit 3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B13" t="s">
+        <v>290</v>
+      </c>
+      <c r="C13" t="s">
+        <v>468</v>
+      </c>
+      <c r="D13" t="str">
+        <f>"line along "&amp;B13&amp;" of "&amp;C13</f>
+        <v>line along medial-lateral axis of distal surface some metapodial bone of digit 3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B14" t="s">
+        <v>290</v>
+      </c>
+      <c r="C14" t="s">
+        <v>468</v>
+      </c>
+      <c r="D14" t="str">
+        <f>"line along "&amp;B14&amp;" of "&amp;C14</f>
+        <v>line along medial-lateral axis of distal surface some metapodial bone of digit 3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B15" t="s">
+        <v>297</v>
+      </c>
+      <c r="C15" t="s">
+        <v>504</v>
+      </c>
+      <c r="D15" t="str">
+        <f>"line along "&amp;B15&amp;" of "&amp;C15</f>
+        <v>line along anterior-posterior axis of distal keel of metapodial bone of digit 3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>507</v>
+      </c>
+      <c r="B16" t="s">
+        <v>297</v>
+      </c>
+      <c r="C16" t="s">
+        <v>508</v>
+      </c>
+      <c r="D16" t="str">
+        <f>"line along "&amp;B16&amp;" of "&amp;C16</f>
+        <v>line along anterior-posterior axis of medial condyle of metapodial bone of digit 3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>505</v>
+      </c>
+      <c r="B17" t="s">
+        <v>297</v>
+      </c>
+      <c r="C17" t="s">
+        <v>506</v>
+      </c>
+      <c r="D17" t="str">
+        <f>"line along "&amp;B17&amp;" of "&amp;C17</f>
+        <v>line along anterior-posterior axis of lateral condyle of metapodial bone of digit 3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B18" t="s">
+        <v>297</v>
+      </c>
+      <c r="C18" t="s">
+        <v>464</v>
+      </c>
+      <c r="D18" t="str">
+        <f>"line along "&amp;B18&amp;" of "&amp;C18</f>
+        <v>line along anterior-posterior axis of proximal surface some metapodial bone of digit 3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B19" t="s">
+        <v>306</v>
+      </c>
+      <c r="C19" t="s">
+        <v>462</v>
+      </c>
+      <c r="D19" t="str">
+        <f>"line along "&amp;B19&amp;" of "&amp;C19</f>
+        <v>line along proximal-distal axis of lateral surface some metapodial bone of digit 3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B20" t="s">
+        <v>306</v>
+      </c>
+      <c r="C20" t="s">
+        <v>484</v>
+      </c>
+      <c r="D20" t="str">
+        <f>"line along "&amp;B20&amp;" of "&amp;C20</f>
+        <v>line along proximal-distal axis of medial surface of some metapodial bone of digit 3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B21" t="s">
+        <v>290</v>
+      </c>
+      <c r="C21" t="s">
+        <v>464</v>
+      </c>
+      <c r="D21" t="str">
+        <f>"line along "&amp;B21&amp;" of "&amp;C21</f>
+        <v>line along medial-lateral axis of proximal surface some metapodial bone of digit 3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B22" t="s">
+        <v>297</v>
+      </c>
+      <c r="C22" t="s">
+        <v>464</v>
+      </c>
+      <c r="D22" t="str">
+        <f>"line along "&amp;B22&amp;" of "&amp;C22</f>
+        <v>line along anterior-posterior axis of proximal surface some metapodial bone of digit 3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C23" t="s">
+        <v>466</v>
+      </c>
+      <c r="D23" t="str">
+        <f>"line along "&amp;B23&amp;" of "&amp;C23</f>
+        <v>line along  of diaphysis some metapodial bone of digit 3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B24" t="s">
+        <v>290</v>
+      </c>
+      <c r="C24" t="s">
+        <v>389</v>
+      </c>
+      <c r="D24" t="str">
+        <f>"line along "&amp;B24&amp;" of "&amp;C24</f>
+        <v>line along medial-lateral axis of distal surface some fused metapodial 3 and 4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B25" t="s">
+        <v>297</v>
+      </c>
+      <c r="C25" t="s">
+        <v>389</v>
+      </c>
+      <c r="D25" t="str">
+        <f>"line along "&amp;B25&amp;" of "&amp;C25</f>
+        <v>line along anterior-posterior axis of distal surface some fused metapodial 3 and 4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B26" t="s">
+        <v>306</v>
+      </c>
+      <c r="C26" t="s">
+        <v>381</v>
+      </c>
+      <c r="D26" t="str">
+        <f>"line along "&amp;B26&amp;" of "&amp;C26</f>
+        <v>line along proximal-distal axis of fused metapodial bones 3 and 4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>382</v>
+      </c>
+      <c r="B27" t="s">
+        <v>290</v>
+      </c>
+      <c r="C27" t="s">
+        <v>383</v>
+      </c>
+      <c r="D27" t="str">
+        <f>"line along "&amp;B27&amp;" of "&amp;C27</f>
+        <v>line along medial-lateral axis of proximal surface some fused metapodial bones 3 and 4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B28" t="s">
+        <v>297</v>
+      </c>
+      <c r="C28" t="s">
+        <v>383</v>
+      </c>
+      <c r="D28" t="str">
+        <f>"line along "&amp;B28&amp;" of "&amp;C28</f>
+        <v>line along anterior-posterior axis of proximal surface some fused metapodial bones 3 and 4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B29" t="s">
+        <v>290</v>
+      </c>
+      <c r="C29" t="s">
+        <v>386</v>
+      </c>
+      <c r="D29" t="str">
+        <f>"line along "&amp;B29&amp;" of "&amp;C29</f>
+        <v>line along medial-lateral axis of diaphysis some fused metapodial bones 3 ad 4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C30" t="s">
+        <v>386</v>
+      </c>
+      <c r="D30" t="str">
+        <f>"line along "&amp;B30&amp;" of "&amp;C30</f>
+        <v>line along  of diaphysis some fused metapodial bones 3 ad 4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B31" t="s">
+        <v>290</v>
+      </c>
+      <c r="C31" t="s">
+        <v>441</v>
+      </c>
+      <c r="D31" t="str">
+        <f>"line along "&amp;B31&amp;" of "&amp;C31</f>
+        <v>line along medial-lateral axis of diaphysis some metapodial bone of digit 4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B32" t="s">
+        <v>290</v>
+      </c>
+      <c r="C32" t="s">
+        <v>443</v>
+      </c>
+      <c r="D32" t="str">
+        <f>"line along "&amp;B32&amp;" of "&amp;C32</f>
+        <v>line along medial-lateral axis of distal surface some metapodial bone of digit 4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B33" t="s">
+        <v>297</v>
+      </c>
+      <c r="C33" t="s">
+        <v>500</v>
+      </c>
+      <c r="D33" t="str">
+        <f>"line along "&amp;B33&amp;" of "&amp;C33</f>
+        <v>line along anterior-posterior axis of distal surface of some metapodial bone of digit 4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B34" t="s">
+        <v>290</v>
+      </c>
+      <c r="C34" t="s">
+        <v>443</v>
+      </c>
+      <c r="D34" t="str">
+        <f>"line along "&amp;B34&amp;" of "&amp;C34</f>
+        <v>line along medial-lateral axis of distal surface some metapodial bone of digit 4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B35" t="s">
+        <v>306</v>
+      </c>
+      <c r="C35" t="s">
+        <v>437</v>
+      </c>
+      <c r="D35" t="str">
+        <f>"line along "&amp;B35&amp;" of "&amp;C35</f>
+        <v>line along proximal-distal axis of metapodial bone of digit 4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B36" t="s">
+        <v>297</v>
+      </c>
+      <c r="C36" t="s">
+        <v>482</v>
+      </c>
+      <c r="D36" t="str">
+        <f>"line along "&amp;B36&amp;" of "&amp;C36</f>
+        <v>line along anterior-posterior axis of medial surface of some metapodial bone of digit 4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>438</v>
+      </c>
+      <c r="B37" t="s">
+        <v>290</v>
+      </c>
+      <c r="C37" t="s">
+        <v>439</v>
+      </c>
+      <c r="D37" t="str">
+        <f>"line along "&amp;B37&amp;" of "&amp;C37</f>
+        <v>line along medial-lateral axis of proximal surface some metapodial bone of digit 4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B38" t="s">
+        <v>290</v>
+      </c>
+      <c r="C38" t="s">
+        <v>439</v>
+      </c>
+      <c r="D38" t="str">
+        <f>"line along "&amp;B38&amp;" of "&amp;C38</f>
+        <v>line along medial-lateral axis of proximal surface some metapodial bone of digit 4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>417</v>
+      </c>
+      <c r="B39" t="s">
+        <v>290</v>
+      </c>
+      <c r="C39" t="s">
+        <v>418</v>
+      </c>
+      <c r="D39" t="str">
+        <f>"line along "&amp;B39&amp;" of "&amp;C39</f>
+        <v>line along medial-lateral axis of proximal surface some metapodial bone</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B40" t="s">
+        <v>297</v>
+      </c>
+      <c r="C40" t="s">
+        <v>418</v>
+      </c>
+      <c r="D40" t="str">
+        <f>"line along "&amp;B40&amp;" of "&amp;C40</f>
+        <v>line along anterior-posterior axis of proximal surface some metapodial bone</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B41" t="s">
+        <v>290</v>
+      </c>
+      <c r="C41" t="s">
+        <v>421</v>
+      </c>
+      <c r="D41" t="str">
+        <f>"line along "&amp;B41&amp;" of "&amp;C41</f>
+        <v>line along medial-lateral axis of diaphysis some metapodial bone</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C42" t="s">
+        <v>421</v>
+      </c>
+      <c r="D42" t="str">
+        <f>"line along "&amp;B42&amp;" of "&amp;C42</f>
+        <v>line along  of diaphysis some metapodial bone</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B43" t="s">
+        <v>290</v>
+      </c>
+      <c r="C43" t="s">
+        <v>456</v>
+      </c>
+      <c r="D43" t="str">
+        <f>"line along "&amp;B43&amp;" of "&amp;C43</f>
+        <v>line along medial-lateral axis of distal surface some metapodial bone of digit 5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B44" t="s">
+        <v>306</v>
+      </c>
+      <c r="C44" t="s">
+        <v>450</v>
+      </c>
+      <c r="D44" t="str">
+        <f>"line along "&amp;B44&amp;" of "&amp;C44</f>
+        <v>line along proximal-distal axis of metapodial bone of digit 5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B45" t="s">
+        <v>297</v>
+      </c>
+      <c r="C45" t="s">
+        <v>486</v>
+      </c>
+      <c r="D45" t="str">
+        <f>"line along "&amp;B45&amp;" of "&amp;C45</f>
+        <v>line along anterior-posterior axis of proximal surface some metapodial bone of digit 2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B46" t="s">
+        <v>290</v>
+      </c>
+      <c r="C46" t="s">
+        <v>489</v>
+      </c>
+      <c r="D46" t="str">
+        <f>"line along "&amp;B46&amp;" of "&amp;C46</f>
+        <v>line along medial-lateral axis of anterior surface some metapodial bone of digit 3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B47" t="s">
+        <v>297</v>
+      </c>
+      <c r="C47" t="s">
+        <v>439</v>
+      </c>
+      <c r="D47" t="str">
+        <f>"line along "&amp;B47&amp;" of "&amp;C47</f>
+        <v>line along anterior-posterior axis of proximal surface some metapodial bone of digit 4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D90">
+    <sortCondition ref="A2:A90"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C4B4634-9AEE-DC43-BE29-DB5FA8E0263E}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D2" t="str">
+        <f>"line that connects "&amp;B2&amp;" and "&amp;C2</f>
+        <v>line that connects lateral epicondylar tuberosity of metapodial III and medial epicondylar tuberosity of metapodial III</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D4" si="0">"line that connects "&amp;B3&amp;" and "&amp;C3</f>
+        <v>line that connects distal keel metapodial IV and anterior proximal facet for the metapodial-carpal/tarsal bone joint</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>line that connects distal keel metapodial and anterior proximal facet for the metapodial-carpal/tarsal bone joint</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F44ACC-71E7-344D-93EB-ED5246249B1F}">
   <dimension ref="A1:H59"/>
   <sheetViews>
@@ -2520,11 +4412,821 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB13C447-0738-BC42-A8E9-6CC7BFBB0E36}">
+  <dimension ref="A1:D53"/>
+  <sheetViews>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:A53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D2" t="str">
+        <f>"line along "&amp;B2&amp;" of "&amp;C2</f>
+        <v>line along proximal-distal axis of metacarpal bone</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D3" t="str">
+        <f>"line along "&amp;B3&amp;" of "&amp;C3</f>
+        <v>line along medial-lateral axis of distal surface some metacarpal bone of digit 2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C4" t="s">
+        <v>293</v>
+      </c>
+      <c r="D4" t="str">
+        <f>"line along "&amp;B4&amp;" of "&amp;C4</f>
+        <v>line along anterior-posterior axis of distal surface some metacarpal bone of digit 2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C5" t="s">
+        <v>302</v>
+      </c>
+      <c r="D5" t="str">
+        <f>"line along "&amp;B5&amp;" of "&amp;C5</f>
+        <v>line along anterior-posterior axis of proximal surface some metacarpal bone of digit 2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B6" t="s">
+        <v>306</v>
+      </c>
+      <c r="C6" t="s">
+        <v>309</v>
+      </c>
+      <c r="D6" t="str">
+        <f>"line along "&amp;B6&amp;" of "&amp;C6</f>
+        <v>line along proximal-distal axis of metacarpal bone of digit 2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B7" t="s">
+        <v>297</v>
+      </c>
+      <c r="C7" t="s">
+        <v>361</v>
+      </c>
+      <c r="D7" t="str">
+        <f>"line along "&amp;B7&amp;" of "&amp;C7</f>
+        <v>line along anterior-posterior axis of medial surface some metacarpal bone of digit 2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C8" t="s">
+        <v>302</v>
+      </c>
+      <c r="D8" t="str">
+        <f>"line along "&amp;B8&amp;" of "&amp;C8</f>
+        <v>line along medial-lateral axis of proximal surface some metacarpal bone of digit 2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B9" t="s">
+        <v>306</v>
+      </c>
+      <c r="C9" t="s">
+        <v>300</v>
+      </c>
+      <c r="D9" t="str">
+        <f>"line along "&amp;B9&amp;" of "&amp;C9</f>
+        <v>line along proximal-distal axis of proximal surface some metacarpal bone of digit 3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B10" t="s">
+        <v>306</v>
+      </c>
+      <c r="C10" t="s">
+        <v>300</v>
+      </c>
+      <c r="D10" t="str">
+        <f>"line along "&amp;B10&amp;" of "&amp;C10</f>
+        <v>line along proximal-distal axis of proximal surface some metacarpal bone of digit 3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B11" t="s">
+        <v>306</v>
+      </c>
+      <c r="C11" t="s">
+        <v>300</v>
+      </c>
+      <c r="D11" t="str">
+        <f>"line along "&amp;B11&amp;" of "&amp;C11</f>
+        <v>line along proximal-distal axis of proximal surface some metacarpal bone of digit 3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B12" t="s">
+        <v>297</v>
+      </c>
+      <c r="C12" t="s">
+        <v>446</v>
+      </c>
+      <c r="D12" t="str">
+        <f>"line along "&amp;B12&amp;" of "&amp;C12</f>
+        <v>line along anterior-posterior axis of diaphysis some metacarpal bone of digit 3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B13" t="s">
+        <v>297</v>
+      </c>
+      <c r="C13" t="s">
+        <v>375</v>
+      </c>
+      <c r="D13" t="str">
+        <f>"line along "&amp;B13&amp;" of "&amp;C13</f>
+        <v>line along anterior-posterior axis of lateral surface some metacarpal bone of digit 3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B14" t="s">
+        <v>290</v>
+      </c>
+      <c r="C14" t="s">
+        <v>291</v>
+      </c>
+      <c r="D14" t="str">
+        <f>"line along "&amp;B14&amp;" of "&amp;C14</f>
+        <v>line along medial-lateral axis of distal surface some metacarpal bone of digit 3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B15" t="s">
+        <v>290</v>
+      </c>
+      <c r="C15" t="s">
+        <v>291</v>
+      </c>
+      <c r="D15" t="str">
+        <f>"line along "&amp;B15&amp;" of "&amp;C15</f>
+        <v>line along medial-lateral axis of distal surface some metacarpal bone of digit 3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B16" t="s">
+        <v>297</v>
+      </c>
+      <c r="C16" t="s">
+        <v>346</v>
+      </c>
+      <c r="D16" t="str">
+        <f>"line along "&amp;B16&amp;" of "&amp;C16</f>
+        <v>line along anterior-posterior axis of distal keel of metacarpal bone of digit 3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>355</v>
+      </c>
+      <c r="B17" t="s">
+        <v>297</v>
+      </c>
+      <c r="C17" t="s">
+        <v>356</v>
+      </c>
+      <c r="D17" t="str">
+        <f>"line along "&amp;B17&amp;" of "&amp;C17</f>
+        <v>line along anterior-posterior axis of medial condyle of metacarpal bone of digit 3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>353</v>
+      </c>
+      <c r="B18" t="s">
+        <v>297</v>
+      </c>
+      <c r="C18" t="s">
+        <v>354</v>
+      </c>
+      <c r="D18" t="str">
+        <f>"line along "&amp;B18&amp;" of "&amp;C18</f>
+        <v>line along anterior-posterior axis of lateral condyle of metacarpal bone of digit 3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B19" t="s">
+        <v>290</v>
+      </c>
+      <c r="C19" t="s">
+        <v>291</v>
+      </c>
+      <c r="D19" t="str">
+        <f>"line along "&amp;B19&amp;" of "&amp;C19</f>
+        <v>line along medial-lateral axis of distal surface some metacarpal bone of digit 3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B20" t="s">
+        <v>297</v>
+      </c>
+      <c r="C20" t="s">
+        <v>300</v>
+      </c>
+      <c r="D20" t="str">
+        <f>"line along "&amp;B20&amp;" of "&amp;C20</f>
+        <v>line along anterior-posterior axis of proximal surface some metacarpal bone of digit 3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B21" t="s">
+        <v>306</v>
+      </c>
+      <c r="C21" t="s">
+        <v>375</v>
+      </c>
+      <c r="D21" t="str">
+        <f>"line along "&amp;B21&amp;" of "&amp;C21</f>
+        <v>line along proximal-distal axis of lateral surface some metacarpal bone of digit 3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B22" t="s">
+        <v>306</v>
+      </c>
+      <c r="C22" t="s">
+        <v>311</v>
+      </c>
+      <c r="D22" t="str">
+        <f>"line along "&amp;B22&amp;" of "&amp;C22</f>
+        <v>line along proximal-distal axis of metacarpal bone of digit 3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B23" t="s">
+        <v>306</v>
+      </c>
+      <c r="C23" t="s">
+        <v>359</v>
+      </c>
+      <c r="D23" t="str">
+        <f>"line along "&amp;B23&amp;" of "&amp;C23</f>
+        <v>line along proximal-distal axis of medial surface some metacarpal bone of digit 3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B24" t="s">
+        <v>290</v>
+      </c>
+      <c r="C24" t="s">
+        <v>329</v>
+      </c>
+      <c r="D24" t="str">
+        <f>"line along "&amp;B24&amp;" of "&amp;C24</f>
+        <v>line along medial-lateral axis of anterior surface some metacarpal bone of digit 3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B25" t="s">
+        <v>290</v>
+      </c>
+      <c r="C25" t="s">
+        <v>300</v>
+      </c>
+      <c r="D25" t="str">
+        <f>"line along "&amp;B25&amp;" of "&amp;C25</f>
+        <v>line along medial-lateral axis of proximal surface some metacarpal bone of digit 3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B26" t="s">
+        <v>297</v>
+      </c>
+      <c r="C26" t="s">
+        <v>300</v>
+      </c>
+      <c r="D26" t="str">
+        <f>"line along "&amp;B26&amp;" of "&amp;C26</f>
+        <v>line along anterior-posterior axis of proximal surface some metacarpal bone of digit 3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C27" t="s">
+        <v>446</v>
+      </c>
+      <c r="D27" t="str">
+        <f>"line along "&amp;B27&amp;" of "&amp;C27</f>
+        <v>line along  of diaphysis some metacarpal bone of digit 3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B28" t="s">
+        <v>290</v>
+      </c>
+      <c r="C28" t="s">
+        <v>400</v>
+      </c>
+      <c r="D28" t="str">
+        <f>"line along "&amp;B28&amp;" of "&amp;C28</f>
+        <v>line along medial-lateral axis of distal surface some fused metapodial bones 3 and 4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B29" t="s">
+        <v>297</v>
+      </c>
+      <c r="C29" t="s">
+        <v>400</v>
+      </c>
+      <c r="D29" t="str">
+        <f>"line along "&amp;B29&amp;" of "&amp;C29</f>
+        <v>line along anterior-posterior axis of distal surface some fused metapodial bones 3 and 4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B30" t="s">
+        <v>306</v>
+      </c>
+      <c r="C30" t="s">
+        <v>392</v>
+      </c>
+      <c r="D30" t="str">
+        <f>"line along "&amp;B30&amp;" of "&amp;C30</f>
+        <v>line along proximal-distal axis of fused metacarpal bones 3 and 4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>393</v>
+      </c>
+      <c r="B31" t="s">
+        <v>290</v>
+      </c>
+      <c r="C31" t="s">
+        <v>394</v>
+      </c>
+      <c r="D31" t="str">
+        <f>"line along "&amp;B31&amp;" of "&amp;C31</f>
+        <v>line along medial-lateral axis of proximal surface some fused metacarpal bones 3 and 4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B32" t="s">
+        <v>297</v>
+      </c>
+      <c r="C32" t="s">
+        <v>394</v>
+      </c>
+      <c r="D32" t="str">
+        <f>"line along "&amp;B32&amp;" of "&amp;C32</f>
+        <v>line along anterior-posterior axis of proximal surface some fused metacarpal bones 3 and 4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B33" t="s">
+        <v>290</v>
+      </c>
+      <c r="C33" t="s">
+        <v>397</v>
+      </c>
+      <c r="D33" t="str">
+        <f>"line along "&amp;B33&amp;" of "&amp;C33</f>
+        <v>line along medial-lateral axis of diaphysis some fused metacarpal bones 3 ad 4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C34" t="s">
+        <v>397</v>
+      </c>
+      <c r="D34" t="str">
+        <f>"line along "&amp;B34&amp;" of "&amp;C34</f>
+        <v>line along  of diaphysis some fused metacarpal bones 3 ad 4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B35" t="s">
+        <v>290</v>
+      </c>
+      <c r="C35" t="s">
+        <v>429</v>
+      </c>
+      <c r="D35" t="str">
+        <f>"line along "&amp;B35&amp;" of "&amp;C35</f>
+        <v>line along medial-lateral axis of diaphysis some metacarpal bone of digit 4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B36" t="s">
+        <v>290</v>
+      </c>
+      <c r="C36" t="s">
+        <v>295</v>
+      </c>
+      <c r="D36" t="str">
+        <f>"line along "&amp;B36&amp;" of "&amp;C36</f>
+        <v>line along medial-lateral axis of distal surface some metacarpal bone of digit 4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B37" t="s">
+        <v>297</v>
+      </c>
+      <c r="C37" t="s">
+        <v>295</v>
+      </c>
+      <c r="D37" t="str">
+        <f>"line along "&amp;B37&amp;" of "&amp;C37</f>
+        <v>line along anterior-posterior axis of distal surface some metacarpal bone of digit 4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B38" t="s">
+        <v>290</v>
+      </c>
+      <c r="C38" t="s">
+        <v>295</v>
+      </c>
+      <c r="D38" t="str">
+        <f>"line along "&amp;B38&amp;" of "&amp;C38</f>
+        <v>line along medial-lateral axis of distal surface some metacarpal bone of digit 4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B39" t="s">
+        <v>297</v>
+      </c>
+      <c r="C39" t="s">
+        <v>304</v>
+      </c>
+      <c r="D39" t="str">
+        <f>"line along "&amp;B39&amp;" of "&amp;C39</f>
+        <v>line along anterior-posterior axis of proximal surface some metacarpal bone of digit 4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B40" t="s">
+        <v>306</v>
+      </c>
+      <c r="C40" t="s">
+        <v>313</v>
+      </c>
+      <c r="D40" t="str">
+        <f>"line along "&amp;B40&amp;" of "&amp;C40</f>
+        <v>line along proximal-distal axis of metacarpal bone of digit 4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B41" t="s">
+        <v>306</v>
+      </c>
+      <c r="C41" t="s">
+        <v>313</v>
+      </c>
+      <c r="D41" t="str">
+        <f>"line along "&amp;B41&amp;" of "&amp;C41</f>
+        <v>line along proximal-distal axis of metacarpal bone of digit 4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B42" t="s">
+        <v>297</v>
+      </c>
+      <c r="C42" t="s">
+        <v>363</v>
+      </c>
+      <c r="D42" t="str">
+        <f>"line along "&amp;B42&amp;" of "&amp;C42</f>
+        <v>line along anterior-posterior axis of medial surface some metacarpal bone of digit 4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>427</v>
+      </c>
+      <c r="B43" t="s">
+        <v>290</v>
+      </c>
+      <c r="C43" t="s">
+        <v>304</v>
+      </c>
+      <c r="D43" t="str">
+        <f>"line along "&amp;B43&amp;" of "&amp;C43</f>
+        <v>line along medial-lateral axis of proximal surface some metacarpal bone of digit 4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B44" t="s">
+        <v>290</v>
+      </c>
+      <c r="C44" t="s">
+        <v>304</v>
+      </c>
+      <c r="D44" t="str">
+        <f>"line along "&amp;B44&amp;" of "&amp;C44</f>
+        <v>line along medial-lateral axis of proximal surface some metacarpal bone of digit 4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B45" t="s">
+        <v>290</v>
+      </c>
+      <c r="C45" t="s">
+        <v>458</v>
+      </c>
+      <c r="D45" t="str">
+        <f>"line along "&amp;B45&amp;" of "&amp;C45</f>
+        <v>line along medial-lateral axis of distal surface some metacarpal bone of digit 5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B46" t="s">
+        <v>306</v>
+      </c>
+      <c r="C46" t="s">
+        <v>452</v>
+      </c>
+      <c r="D46" t="str">
+        <f>"line along "&amp;B46&amp;" of "&amp;C46</f>
+        <v>line along proximal-distal axis of metacarpal bone of digit 5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AC294AD-AD8D-4B48-AD9E-BA6655CE15BD}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D2" t="str">
+        <f>"line that connects "&amp;B2&amp;" and "&amp;C2</f>
+        <v>line that connects lateral epicondylar tuberosity of metacarpal III and medial epicondylar tuberosity of metacarpal III</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D4" si="0">"line that connects "&amp;B3&amp;" and "&amp;C3</f>
+        <v>line that connects distal keel metacarpal IV and anterior proximal facet for the carpometacarpal joint</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>line that connects distal keel metacarpal III and anterior proximal facet for the carpometacarpal joint</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F0AE93-8D78-ED49-A671-302F191049AB}">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
@@ -3183,298 +5885,782 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C69CCF6-5492-0A4C-9378-BA66BC6E8B2A}">
-  <dimension ref="A1:D34"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2D4D08-8D05-E14C-80F5-CDA3C06B90AF}">
+  <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="N60" sqref="N60:N66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C1" t="s">
         <v>168</v>
       </c>
-      <c r="B1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C1" t="s">
-        <v>170</v>
-      </c>
       <c r="D1" t="s">
-        <v>171</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>172</v>
+      <c r="A2" s="1" t="s">
+        <v>337</v>
       </c>
       <c r="B2" t="s">
-        <v>173</v>
+        <v>306</v>
       </c>
       <c r="C2" t="s">
-        <v>174</v>
+        <v>338</v>
+      </c>
+      <c r="D2" t="str">
+        <f>"line along "&amp;B2&amp;" of "&amp;C2</f>
+        <v>line along proximal-distal axis of metatarsal bone</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>175</v>
+      <c r="A3" s="1" t="s">
+        <v>322</v>
       </c>
       <c r="B3" t="s">
-        <v>173</v>
+        <v>290</v>
       </c>
       <c r="C3" t="s">
-        <v>176</v>
+        <v>323</v>
+      </c>
+      <c r="D3" t="str">
+        <f>"line along "&amp;B3&amp;" of "&amp;C3</f>
+        <v>line along medial-lateral axis of distal surface some metatarsal bone of digit 2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>177</v>
+      <c r="A4" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B4" t="s">
+        <v>297</v>
       </c>
       <c r="C4" t="s">
-        <v>178</v>
+        <v>323</v>
+      </c>
+      <c r="D4" t="str">
+        <f>"line along "&amp;B4&amp;" of "&amp;C4</f>
+        <v>line along anterior-posterior axis of distal surface some metatarsal bone of digit 2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>179</v>
+      <c r="A5" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B5" t="s">
+        <v>297</v>
       </c>
       <c r="C5" t="s">
-        <v>178</v>
+        <v>315</v>
+      </c>
+      <c r="D5" t="str">
+        <f>"line along "&amp;B5&amp;" of "&amp;C5</f>
+        <v>line along anterior-posterior axis of proximal surface some metatarsal bone of digit 2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>180</v>
+      <c r="A6" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B6" t="s">
+        <v>306</v>
       </c>
       <c r="C6" t="s">
-        <v>181</v>
+        <v>340</v>
+      </c>
+      <c r="D6" t="str">
+        <f>"line along "&amp;B6&amp;" of "&amp;C6</f>
+        <v>line along proximal-distal axis of metatarsal bone of digit 2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>182</v>
+      <c r="A7" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B7" t="s">
+        <v>297</v>
       </c>
       <c r="C7" t="s">
-        <v>183</v>
+        <v>366</v>
+      </c>
+      <c r="D7" t="str">
+        <f>"line along "&amp;B7&amp;" of "&amp;C7</f>
+        <v>line along anterior-posterior axis of medial surface osome metatarsal bone of digit 2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>184</v>
+      <c r="A8" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B8" t="s">
+        <v>290</v>
       </c>
       <c r="C8" t="s">
-        <v>185</v>
+        <v>315</v>
+      </c>
+      <c r="D8" t="str">
+        <f>"line along "&amp;B8&amp;" of "&amp;C8</f>
+        <v>line along medial-lateral axis of proximal surface some metatarsal bone of digit 2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>186</v>
+      <c r="A9" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B9" t="s">
+        <v>306</v>
       </c>
       <c r="C9" t="s">
-        <v>187</v>
+        <v>327</v>
+      </c>
+      <c r="D9" t="str">
+        <f>"line along "&amp;B9&amp;" of "&amp;C9</f>
+        <v>line along proximal-distal axis of proximal surface some metatarsal bone of digit 3</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>188</v>
+      <c r="A10" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B10" t="s">
+        <v>306</v>
       </c>
       <c r="C10" t="s">
-        <v>189</v>
+        <v>327</v>
+      </c>
+      <c r="D10" t="str">
+        <f>"line along "&amp;B10&amp;" of "&amp;C10</f>
+        <v>line along proximal-distal axis of proximal surface some metatarsal bone of digit 3</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>190</v>
+      <c r="A11" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B11" t="s">
+        <v>297</v>
       </c>
       <c r="C11" t="s">
-        <v>191</v>
+        <v>377</v>
+      </c>
+      <c r="D11" t="str">
+        <f>"line along "&amp;B11&amp;" of "&amp;C11</f>
+        <v>line along anterior-posterior axis of lateral surface some metatarsal bone of digit 3</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>192</v>
+      <c r="A12" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B12" t="s">
+        <v>290</v>
       </c>
       <c r="C12" t="s">
-        <v>193</v>
+        <v>321</v>
+      </c>
+      <c r="D12" t="str">
+        <f>"line along "&amp;B12&amp;" of "&amp;C12</f>
+        <v>line along medial-lateral axis of distal surface some metatarsal bone of digit 3</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>194</v>
+      <c r="A13" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B13" t="s">
+        <v>290</v>
       </c>
       <c r="C13" t="s">
-        <v>195</v>
+        <v>478</v>
+      </c>
+      <c r="D13" t="str">
+        <f>"line along "&amp;B13&amp;" of "&amp;C13</f>
+        <v>line along medial-lateral axis of distal surface some metarsal bone of digit 3</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>196</v>
+      <c r="A14" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B14" t="s">
+        <v>297</v>
       </c>
       <c r="C14" t="s">
-        <v>197</v>
+        <v>348</v>
+      </c>
+      <c r="D14" t="str">
+        <f>"line along "&amp;B14&amp;" of "&amp;C14</f>
+        <v>line along anterior-posterior axis of distal keel of metatarsal bone of digit 3</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>198</v>
+        <v>351</v>
+      </c>
+      <c r="B15" t="s">
+        <v>297</v>
       </c>
       <c r="C15" t="s">
-        <v>199</v>
+        <v>352</v>
+      </c>
+      <c r="D15" t="str">
+        <f>"line along "&amp;B15&amp;" of "&amp;C15</f>
+        <v>line along anterior-posterior axis of medial condyle of metatarsal bone of digit 3</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>200</v>
+        <v>349</v>
+      </c>
+      <c r="B16" t="s">
+        <v>297</v>
       </c>
       <c r="C16" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>202</v>
+        <v>350</v>
+      </c>
+      <c r="D16" t="str">
+        <f>"line along "&amp;B16&amp;" of "&amp;C16</f>
+        <v>line along anterior-posterior axis of lateral condyle of metatarsal bone of digit 3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B17" t="s">
+        <v>290</v>
       </c>
       <c r="C17" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>204</v>
+        <v>321</v>
+      </c>
+      <c r="D17" t="str">
+        <f>"line along "&amp;B17&amp;" of "&amp;C17</f>
+        <v>line along medial-lateral axis of distal surface some metatarsal bone of digit 3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B18" t="s">
+        <v>297</v>
       </c>
       <c r="C18" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>206</v>
+        <v>327</v>
+      </c>
+      <c r="D18" t="str">
+        <f>"line along "&amp;B18&amp;" of "&amp;C18</f>
+        <v>line along anterior-posterior axis of proximal surface some metatarsal bone of digit 3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B19" t="s">
+        <v>306</v>
       </c>
       <c r="C19" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>208</v>
+        <v>377</v>
+      </c>
+      <c r="D19" t="str">
+        <f>"line along "&amp;B19&amp;" of "&amp;C19</f>
+        <v>line along proximal-distal axis of lateral surface some metatarsal bone of digit 3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B20" t="s">
+        <v>306</v>
       </c>
       <c r="C20" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>210</v>
+        <v>342</v>
+      </c>
+      <c r="D20" t="str">
+        <f>"line along "&amp;B20&amp;" of "&amp;C20</f>
+        <v>line along proximal-distal axis of metatarsal bone of digit 3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B21" t="s">
+        <v>306</v>
       </c>
       <c r="C21" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+        <v>342</v>
+      </c>
+      <c r="D21" t="str">
+        <f>"line along "&amp;B21&amp;" of "&amp;C21</f>
+        <v>line along proximal-distal axis of metatarsal bone of digit 3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B22" t="s">
+        <v>290</v>
+      </c>
+      <c r="C22" t="s">
+        <v>331</v>
+      </c>
+      <c r="D22" t="str">
+        <f>"line along "&amp;B22&amp;" of "&amp;C22</f>
+        <v>line along medial-lateral axis of anterior surface some metatarsal bone of digit 3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B23" t="s">
+        <v>290</v>
+      </c>
+      <c r="C23" t="s">
+        <v>327</v>
+      </c>
+      <c r="D23" t="str">
+        <f>"line along "&amp;B23&amp;" of "&amp;C23</f>
+        <v>line along medial-lateral axis of proximal surface some metatarsal bone of digit 3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B24" t="s">
+        <v>297</v>
+      </c>
+      <c r="C24" t="s">
+        <v>327</v>
+      </c>
+      <c r="D24" t="str">
+        <f>"line along "&amp;B24&amp;" of "&amp;C24</f>
+        <v>line along anterior-posterior axis of proximal surface some metatarsal bone of digit 3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C25" t="s">
+        <v>476</v>
+      </c>
+      <c r="D25" t="str">
+        <f>"line along "&amp;B25&amp;" of "&amp;C25</f>
+        <v>line along  of diaphysis some metatarsal bone of digit 3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B26" t="s">
+        <v>290</v>
+      </c>
+      <c r="C26" t="s">
+        <v>411</v>
+      </c>
+      <c r="D26" t="str">
+        <f>"line along "&amp;B26&amp;" of "&amp;C26</f>
+        <v>line along medial-lateral axis of distal surface some fused metatarsal bones 3 and 4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B27" t="s">
+        <v>297</v>
+      </c>
+      <c r="C27" t="s">
+        <v>411</v>
+      </c>
+      <c r="D27" t="str">
+        <f>"line along "&amp;B27&amp;" of "&amp;C27</f>
+        <v>line along anterior-posterior axis of distal surface some fused metatarsal bones 3 and 4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B28" t="s">
+        <v>306</v>
+      </c>
+      <c r="C28" t="s">
+        <v>403</v>
+      </c>
+      <c r="D28" t="str">
+        <f>"line along "&amp;B28&amp;" of "&amp;C28</f>
+        <v>line along proximal-distal axis of fused metatarsal bones 3 and 4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>404</v>
+      </c>
+      <c r="B29" t="s">
+        <v>290</v>
+      </c>
+      <c r="C29" t="s">
+        <v>405</v>
+      </c>
+      <c r="D29" t="str">
+        <f>"line along "&amp;B29&amp;" of "&amp;C29</f>
+        <v>line along medial-lateral axis of proximal surface some fused metatarsal bones 3 and 4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B30" t="s">
+        <v>297</v>
+      </c>
+      <c r="C30" t="s">
+        <v>405</v>
+      </c>
+      <c r="D30" t="str">
+        <f>"line along "&amp;B30&amp;" of "&amp;C30</f>
+        <v>line along anterior-posterior axis of proximal surface some fused metatarsal bones 3 and 4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B31" t="s">
+        <v>290</v>
+      </c>
+      <c r="C31" t="s">
+        <v>408</v>
+      </c>
+      <c r="D31" t="str">
+        <f>"line along "&amp;B31&amp;" of "&amp;C31</f>
+        <v>line along medial-lateral axis of diaphysis some fused metatarsal bones 3 and 4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C32" t="s">
+        <v>408</v>
+      </c>
+      <c r="D32" t="str">
+        <f>"line along "&amp;B32&amp;" of "&amp;C32</f>
+        <v>line along  of diaphysis some fused metatarsal bones 3 and 4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B33" t="s">
+        <v>290</v>
+      </c>
+      <c r="C33" t="s">
+        <v>434</v>
+      </c>
+      <c r="D33" t="str">
+        <f>"line along "&amp;B33&amp;" of "&amp;C33</f>
+        <v>line along medial-lateral axis of diaphysis some metatarsal bone of digit 4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B34" t="s">
+        <v>290</v>
+      </c>
+      <c r="C34" t="s">
+        <v>325</v>
+      </c>
+      <c r="D34" t="str">
+        <f>"line along "&amp;B34&amp;" of "&amp;C34</f>
+        <v>line along medial-lateral axis of distal surface some metatarsal bone of digit 4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B35" t="s">
+        <v>297</v>
+      </c>
+      <c r="C35" t="s">
+        <v>325</v>
+      </c>
+      <c r="D35" t="str">
+        <f>"line along "&amp;B35&amp;" of "&amp;C35</f>
+        <v>line along anterior-posterior axis of distal surface some metatarsal bone of digit 4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B36" t="s">
+        <v>290</v>
+      </c>
+      <c r="C36" t="s">
+        <v>325</v>
+      </c>
+      <c r="D36" t="str">
+        <f>"line along "&amp;B36&amp;" of "&amp;C36</f>
+        <v>line along medial-lateral axis of distal surface some metatarsal bone of digit 4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B37" t="s">
+        <v>297</v>
+      </c>
+      <c r="C37" t="s">
+        <v>317</v>
+      </c>
+      <c r="D37" t="str">
+        <f>"line along "&amp;B37&amp;" of "&amp;C37</f>
+        <v>line along anterior-posterior axis of proximal surface some metatarsal bone of digit 4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B38" t="s">
+        <v>306</v>
+      </c>
+      <c r="C38" t="s">
+        <v>344</v>
+      </c>
+      <c r="D38" t="str">
+        <f>"line along "&amp;B38&amp;" of "&amp;C38</f>
+        <v>line along proximal-distal axis of metatarsal bone of digit 4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B39" t="s">
+        <v>306</v>
+      </c>
+      <c r="C39" t="s">
+        <v>344</v>
+      </c>
+      <c r="D39" t="str">
+        <f>"line along "&amp;B39&amp;" of "&amp;C39</f>
+        <v>line along proximal-distal axis of metatarsal bone of digit 4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B40" t="s">
+        <v>297</v>
+      </c>
+      <c r="C40" t="s">
+        <v>368</v>
+      </c>
+      <c r="D40" t="str">
+        <f>"line along "&amp;B40&amp;" of "&amp;C40</f>
+        <v>line along anterior-posterior axis of medial surface some metatarsal bone of digit 4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>432</v>
+      </c>
+      <c r="B41" t="s">
+        <v>290</v>
+      </c>
+      <c r="C41" t="s">
+        <v>317</v>
+      </c>
+      <c r="D41" t="str">
+        <f>"line along "&amp;B41&amp;" of "&amp;C41</f>
+        <v>line along medial-lateral axis of proximal surface some metatarsal bone of digit 4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B42" t="s">
+        <v>290</v>
+      </c>
+      <c r="C42" t="s">
+        <v>317</v>
+      </c>
+      <c r="D42" t="str">
+        <f>"line along "&amp;B42&amp;" of "&amp;C42</f>
+        <v>line along medial-lateral axis of proximal surface some metatarsal bone of digit 4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B43" t="s">
+        <v>290</v>
+      </c>
+      <c r="C43" t="s">
+        <v>460</v>
+      </c>
+      <c r="D43" t="str">
+        <f>"line along "&amp;B43&amp;" of "&amp;C43</f>
+        <v>line along medial-lateral axis of distal surface some metatarsal bone of digit 5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B44" t="s">
+        <v>306</v>
+      </c>
+      <c r="C44" t="s">
+        <v>454</v>
+      </c>
+      <c r="D44" t="str">
+        <f>"line along "&amp;B44&amp;" of "&amp;C44</f>
+        <v>line along proximal-distal axis of metatarsal bone of digit 5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="N53:N76">
+    <sortCondition ref="N53:N76"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01E50736-5568-8642-AAD5-CA389D4FCD55}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B2" t="s">
         <v>212</v>
       </c>
-      <c r="C22" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="C2" t="s">
         <v>214</v>
       </c>
-      <c r="C23" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>216</v>
-      </c>
-      <c r="C24" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>218</v>
-      </c>
-      <c r="C25" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>220</v>
-      </c>
-      <c r="C26" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>222</v>
-      </c>
-      <c r="C27" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>224</v>
-      </c>
-      <c r="C28" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>226</v>
-      </c>
-      <c r="C29" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>228</v>
-      </c>
-      <c r="C30" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>230</v>
-      </c>
-      <c r="C31" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>232</v>
-      </c>
-      <c r="C32" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>234</v>
-      </c>
-      <c r="C33" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>236</v>
-      </c>
-      <c r="C34" t="s">
-        <v>237</v>
+      <c r="D2" t="str">
+        <f>"line that connects "&amp;B2&amp;" and "&amp;C2</f>
+        <v>line that connects lateral epicondylar tuberosity of metatarsal III and medial epicondylar tuberosity of metatarsal III</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3" si="0">"line that connects "&amp;B3&amp;" and "&amp;C3</f>
+        <v>line that connects distal keel metatarsal IV and anterior proximal facet for the tarsometatarsal joint</v>
       </c>
     </row>
   </sheetData>

--- a/terms/metapodialTerms.xlsx
+++ b/terms/metapodialTerms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02AEB0A5-7466-5B40-AACC-F5E666551DD1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{231D3AE7-A5A4-7F43-8411-5122799DC85B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16640" activeTab="1" xr2:uid="{4B25A08D-3FDD-7049-9343-BD8F323342BE}"/>
+    <workbookView xWindow="16420" yWindow="500" windowWidth="12380" windowHeight="16640" firstSheet="6" activeTab="9" xr2:uid="{4B25A08D-3FDD-7049-9343-BD8F323342BE}"/>
   </bookViews>
   <sheets>
     <sheet name="metapodial" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="542">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -1609,6 +1609,57 @@
   </si>
   <si>
     <t>metapodial length without plantar projection</t>
+  </si>
+  <si>
+    <t>in fovt</t>
+  </si>
+  <si>
+    <t>REPEAT</t>
+  </si>
+  <si>
+    <t>metapodial articular surface</t>
+  </si>
+  <si>
+    <t>metatarsal articular surface</t>
+  </si>
+  <si>
+    <t>metatarsal bone of digit 3 articular surface</t>
+  </si>
+  <si>
+    <t>metatarsal distal articular surface</t>
+  </si>
+  <si>
+    <t>metatarsal proximal articular surface</t>
+  </si>
+  <si>
+    <t>metacarpal articular surface</t>
+  </si>
+  <si>
+    <t>metacarpal proximal articular surface</t>
+  </si>
+  <si>
+    <t>metacarpal distal articular surface</t>
+  </si>
+  <si>
+    <t>metapodial distal articular surface</t>
+  </si>
+  <si>
+    <t>metapodial proximal articular surface</t>
+  </si>
+  <si>
+    <t>metatarsal bone of digit 3 distal articular surface</t>
+  </si>
+  <si>
+    <t>metatarsal bone of digit 3 proximal articular surface</t>
+  </si>
+  <si>
+    <t>metacarpal bone of digit 3 articular surface</t>
+  </si>
+  <si>
+    <t>metacarpal bone of digit 3 distal articular surface</t>
+  </si>
+  <si>
+    <t>metacarpal bone of digit 3 proximal articular surface</t>
   </si>
 </sst>
 </file>
@@ -1970,7 +2021,7 @@
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51:F52"/>
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2605,13 +2656,16 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C69CCF6-5492-0A4C-9378-BA66BC6E8B2A}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="45.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -2895,6 +2949,81 @@
       </c>
       <c r="C34" t="s">
         <v>237</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>541</v>
       </c>
     </row>
   </sheetData>
@@ -2906,7 +3035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F5040D-4511-B642-BECA-8C8AF44B1A68}">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+    <sheetView topLeftCell="A30" workbookViewId="0">
       <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
@@ -2937,7 +3066,7 @@
         <v>421</v>
       </c>
       <c r="D2" t="str">
-        <f>"line along "&amp;B2&amp;" of "&amp;C2</f>
+        <f t="shared" ref="D2:D47" si="0">"line along "&amp;B2&amp;" of "&amp;C2</f>
         <v>line along anterior-posterior axis of diaphysis some metapodial bone</v>
       </c>
     </row>
@@ -2952,7 +3081,7 @@
         <v>424</v>
       </c>
       <c r="D3" t="str">
-        <f>"line along "&amp;B3&amp;" of "&amp;C3</f>
+        <f t="shared" si="0"/>
         <v>line along medial-lateral axis of distal surface some metapodial bone</v>
       </c>
     </row>
@@ -2967,7 +3096,7 @@
         <v>424</v>
       </c>
       <c r="D4" t="str">
-        <f>"line along "&amp;B4&amp;" of "&amp;C4</f>
+        <f t="shared" si="0"/>
         <v>line along anterior-posterior axis of distal surface some metapodial bone</v>
       </c>
     </row>
@@ -2982,7 +3111,7 @@
         <v>416</v>
       </c>
       <c r="D5" t="str">
-        <f>"line along "&amp;B5&amp;" of "&amp;C5</f>
+        <f t="shared" si="0"/>
         <v>line along proximal-distal axis of lateral surface some fused metapodial bones 3 and 4</v>
       </c>
     </row>
@@ -2997,7 +3126,7 @@
         <v>414</v>
       </c>
       <c r="D6" t="str">
-        <f>"line along "&amp;B6&amp;" of "&amp;C6</f>
+        <f t="shared" si="0"/>
         <v>line along proximal-distal axis of metapodial bone</v>
       </c>
     </row>
@@ -3012,7 +3141,7 @@
         <v>494</v>
       </c>
       <c r="D7" t="str">
-        <f>"line along "&amp;B7&amp;" of "&amp;C7</f>
+        <f t="shared" si="0"/>
         <v>line along medial-lateral axis of distal surface some metapodial bone of digit 2</v>
       </c>
     </row>
@@ -3027,7 +3156,7 @@
         <v>498</v>
       </c>
       <c r="D8" t="str">
-        <f>"line along "&amp;B8&amp;" of "&amp;C8</f>
+        <f t="shared" si="0"/>
         <v>line along anterior-posterior axis of distal surface of some metapodial bone of digit 2</v>
       </c>
     </row>
@@ -3042,7 +3171,7 @@
         <v>448</v>
       </c>
       <c r="D9" t="str">
-        <f>"line along "&amp;B9&amp;" of "&amp;C9</f>
+        <f t="shared" si="0"/>
         <v>line along proximal-distal axis of metapodial bone of digit 2</v>
       </c>
     </row>
@@ -3057,7 +3186,7 @@
         <v>480</v>
       </c>
       <c r="D10" t="str">
-        <f>"line along "&amp;B10&amp;" of "&amp;C10</f>
+        <f t="shared" si="0"/>
         <v>line along anterior-posterior axis of medial surface of some metapodial bone of digit 2</v>
       </c>
     </row>
@@ -3072,7 +3201,7 @@
         <v>486</v>
       </c>
       <c r="D11" t="str">
-        <f>"line along "&amp;B11&amp;" of "&amp;C11</f>
+        <f t="shared" si="0"/>
         <v>line along medial-lateral axis of proximal surface some metapodial bone of digit 2</v>
       </c>
     </row>
@@ -3087,7 +3216,7 @@
         <v>462</v>
       </c>
       <c r="D12" t="str">
-        <f>"line along "&amp;B12&amp;" of "&amp;C12</f>
+        <f t="shared" si="0"/>
         <v>line along anterior-posterior axis of lateral surface some metapodial bone of digit 3</v>
       </c>
     </row>
@@ -3102,7 +3231,7 @@
         <v>468</v>
       </c>
       <c r="D13" t="str">
-        <f>"line along "&amp;B13&amp;" of "&amp;C13</f>
+        <f t="shared" si="0"/>
         <v>line along medial-lateral axis of distal surface some metapodial bone of digit 3</v>
       </c>
     </row>
@@ -3117,7 +3246,7 @@
         <v>468</v>
       </c>
       <c r="D14" t="str">
-        <f>"line along "&amp;B14&amp;" of "&amp;C14</f>
+        <f t="shared" si="0"/>
         <v>line along medial-lateral axis of distal surface some metapodial bone of digit 3</v>
       </c>
     </row>
@@ -3132,7 +3261,7 @@
         <v>504</v>
       </c>
       <c r="D15" t="str">
-        <f>"line along "&amp;B15&amp;" of "&amp;C15</f>
+        <f t="shared" si="0"/>
         <v>line along anterior-posterior axis of distal keel of metapodial bone of digit 3</v>
       </c>
     </row>
@@ -3147,7 +3276,7 @@
         <v>508</v>
       </c>
       <c r="D16" t="str">
-        <f>"line along "&amp;B16&amp;" of "&amp;C16</f>
+        <f t="shared" si="0"/>
         <v>line along anterior-posterior axis of medial condyle of metapodial bone of digit 3</v>
       </c>
     </row>
@@ -3162,7 +3291,7 @@
         <v>506</v>
       </c>
       <c r="D17" t="str">
-        <f>"line along "&amp;B17&amp;" of "&amp;C17</f>
+        <f t="shared" si="0"/>
         <v>line along anterior-posterior axis of lateral condyle of metapodial bone of digit 3</v>
       </c>
     </row>
@@ -3177,7 +3306,7 @@
         <v>464</v>
       </c>
       <c r="D18" t="str">
-        <f>"line along "&amp;B18&amp;" of "&amp;C18</f>
+        <f t="shared" si="0"/>
         <v>line along anterior-posterior axis of proximal surface some metapodial bone of digit 3</v>
       </c>
     </row>
@@ -3192,7 +3321,7 @@
         <v>462</v>
       </c>
       <c r="D19" t="str">
-        <f>"line along "&amp;B19&amp;" of "&amp;C19</f>
+        <f t="shared" si="0"/>
         <v>line along proximal-distal axis of lateral surface some metapodial bone of digit 3</v>
       </c>
     </row>
@@ -3207,7 +3336,7 @@
         <v>484</v>
       </c>
       <c r="D20" t="str">
-        <f>"line along "&amp;B20&amp;" of "&amp;C20</f>
+        <f t="shared" si="0"/>
         <v>line along proximal-distal axis of medial surface of some metapodial bone of digit 3</v>
       </c>
     </row>
@@ -3222,7 +3351,7 @@
         <v>464</v>
       </c>
       <c r="D21" t="str">
-        <f>"line along "&amp;B21&amp;" of "&amp;C21</f>
+        <f t="shared" si="0"/>
         <v>line along medial-lateral axis of proximal surface some metapodial bone of digit 3</v>
       </c>
     </row>
@@ -3237,7 +3366,7 @@
         <v>464</v>
       </c>
       <c r="D22" t="str">
-        <f>"line along "&amp;B22&amp;" of "&amp;C22</f>
+        <f t="shared" si="0"/>
         <v>line along anterior-posterior axis of proximal surface some metapodial bone of digit 3</v>
       </c>
     </row>
@@ -3249,7 +3378,7 @@
         <v>466</v>
       </c>
       <c r="D23" t="str">
-        <f>"line along "&amp;B23&amp;" of "&amp;C23</f>
+        <f t="shared" si="0"/>
         <v>line along  of diaphysis some metapodial bone of digit 3</v>
       </c>
     </row>
@@ -3264,7 +3393,7 @@
         <v>389</v>
       </c>
       <c r="D24" t="str">
-        <f>"line along "&amp;B24&amp;" of "&amp;C24</f>
+        <f t="shared" si="0"/>
         <v>line along medial-lateral axis of distal surface some fused metapodial 3 and 4</v>
       </c>
     </row>
@@ -3279,7 +3408,7 @@
         <v>389</v>
       </c>
       <c r="D25" t="str">
-        <f>"line along "&amp;B25&amp;" of "&amp;C25</f>
+        <f t="shared" si="0"/>
         <v>line along anterior-posterior axis of distal surface some fused metapodial 3 and 4</v>
       </c>
     </row>
@@ -3294,7 +3423,7 @@
         <v>381</v>
       </c>
       <c r="D26" t="str">
-        <f>"line along "&amp;B26&amp;" of "&amp;C26</f>
+        <f t="shared" si="0"/>
         <v>line along proximal-distal axis of fused metapodial bones 3 and 4</v>
       </c>
     </row>
@@ -3309,7 +3438,7 @@
         <v>383</v>
       </c>
       <c r="D27" t="str">
-        <f>"line along "&amp;B27&amp;" of "&amp;C27</f>
+        <f t="shared" si="0"/>
         <v>line along medial-lateral axis of proximal surface some fused metapodial bones 3 and 4</v>
       </c>
     </row>
@@ -3324,7 +3453,7 @@
         <v>383</v>
       </c>
       <c r="D28" t="str">
-        <f>"line along "&amp;B28&amp;" of "&amp;C28</f>
+        <f t="shared" si="0"/>
         <v>line along anterior-posterior axis of proximal surface some fused metapodial bones 3 and 4</v>
       </c>
     </row>
@@ -3339,7 +3468,7 @@
         <v>386</v>
       </c>
       <c r="D29" t="str">
-        <f>"line along "&amp;B29&amp;" of "&amp;C29</f>
+        <f t="shared" si="0"/>
         <v>line along medial-lateral axis of diaphysis some fused metapodial bones 3 ad 4</v>
       </c>
     </row>
@@ -3351,7 +3480,7 @@
         <v>386</v>
       </c>
       <c r="D30" t="str">
-        <f>"line along "&amp;B30&amp;" of "&amp;C30</f>
+        <f t="shared" si="0"/>
         <v>line along  of diaphysis some fused metapodial bones 3 ad 4</v>
       </c>
     </row>
@@ -3366,7 +3495,7 @@
         <v>441</v>
       </c>
       <c r="D31" t="str">
-        <f>"line along "&amp;B31&amp;" of "&amp;C31</f>
+        <f t="shared" si="0"/>
         <v>line along medial-lateral axis of diaphysis some metapodial bone of digit 4</v>
       </c>
     </row>
@@ -3381,7 +3510,7 @@
         <v>443</v>
       </c>
       <c r="D32" t="str">
-        <f>"line along "&amp;B32&amp;" of "&amp;C32</f>
+        <f t="shared" si="0"/>
         <v>line along medial-lateral axis of distal surface some metapodial bone of digit 4</v>
       </c>
     </row>
@@ -3396,7 +3525,7 @@
         <v>500</v>
       </c>
       <c r="D33" t="str">
-        <f>"line along "&amp;B33&amp;" of "&amp;C33</f>
+        <f t="shared" si="0"/>
         <v>line along anterior-posterior axis of distal surface of some metapodial bone of digit 4</v>
       </c>
     </row>
@@ -3411,7 +3540,7 @@
         <v>443</v>
       </c>
       <c r="D34" t="str">
-        <f>"line along "&amp;B34&amp;" of "&amp;C34</f>
+        <f t="shared" si="0"/>
         <v>line along medial-lateral axis of distal surface some metapodial bone of digit 4</v>
       </c>
     </row>
@@ -3426,7 +3555,7 @@
         <v>437</v>
       </c>
       <c r="D35" t="str">
-        <f>"line along "&amp;B35&amp;" of "&amp;C35</f>
+        <f t="shared" si="0"/>
         <v>line along proximal-distal axis of metapodial bone of digit 4</v>
       </c>
     </row>
@@ -3441,7 +3570,7 @@
         <v>482</v>
       </c>
       <c r="D36" t="str">
-        <f>"line along "&amp;B36&amp;" of "&amp;C36</f>
+        <f t="shared" si="0"/>
         <v>line along anterior-posterior axis of medial surface of some metapodial bone of digit 4</v>
       </c>
     </row>
@@ -3456,7 +3585,7 @@
         <v>439</v>
       </c>
       <c r="D37" t="str">
-        <f>"line along "&amp;B37&amp;" of "&amp;C37</f>
+        <f t="shared" si="0"/>
         <v>line along medial-lateral axis of proximal surface some metapodial bone of digit 4</v>
       </c>
     </row>
@@ -3471,7 +3600,7 @@
         <v>439</v>
       </c>
       <c r="D38" t="str">
-        <f>"line along "&amp;B38&amp;" of "&amp;C38</f>
+        <f t="shared" si="0"/>
         <v>line along medial-lateral axis of proximal surface some metapodial bone of digit 4</v>
       </c>
     </row>
@@ -3486,7 +3615,7 @@
         <v>418</v>
       </c>
       <c r="D39" t="str">
-        <f>"line along "&amp;B39&amp;" of "&amp;C39</f>
+        <f t="shared" si="0"/>
         <v>line along medial-lateral axis of proximal surface some metapodial bone</v>
       </c>
     </row>
@@ -3501,7 +3630,7 @@
         <v>418</v>
       </c>
       <c r="D40" t="str">
-        <f>"line along "&amp;B40&amp;" of "&amp;C40</f>
+        <f t="shared" si="0"/>
         <v>line along anterior-posterior axis of proximal surface some metapodial bone</v>
       </c>
     </row>
@@ -3516,7 +3645,7 @@
         <v>421</v>
       </c>
       <c r="D41" t="str">
-        <f>"line along "&amp;B41&amp;" of "&amp;C41</f>
+        <f t="shared" si="0"/>
         <v>line along medial-lateral axis of diaphysis some metapodial bone</v>
       </c>
     </row>
@@ -3528,7 +3657,7 @@
         <v>421</v>
       </c>
       <c r="D42" t="str">
-        <f>"line along "&amp;B42&amp;" of "&amp;C42</f>
+        <f t="shared" si="0"/>
         <v>line along  of diaphysis some metapodial bone</v>
       </c>
     </row>
@@ -3543,7 +3672,7 @@
         <v>456</v>
       </c>
       <c r="D43" t="str">
-        <f>"line along "&amp;B43&amp;" of "&amp;C43</f>
+        <f t="shared" si="0"/>
         <v>line along medial-lateral axis of distal surface some metapodial bone of digit 5</v>
       </c>
     </row>
@@ -3558,7 +3687,7 @@
         <v>450</v>
       </c>
       <c r="D44" t="str">
-        <f>"line along "&amp;B44&amp;" of "&amp;C44</f>
+        <f t="shared" si="0"/>
         <v>line along proximal-distal axis of metapodial bone of digit 5</v>
       </c>
     </row>
@@ -3573,7 +3702,7 @@
         <v>486</v>
       </c>
       <c r="D45" t="str">
-        <f>"line along "&amp;B45&amp;" of "&amp;C45</f>
+        <f t="shared" si="0"/>
         <v>line along anterior-posterior axis of proximal surface some metapodial bone of digit 2</v>
       </c>
     </row>
@@ -3588,7 +3717,7 @@
         <v>489</v>
       </c>
       <c r="D46" t="str">
-        <f>"line along "&amp;B46&amp;" of "&amp;C46</f>
+        <f t="shared" si="0"/>
         <v>line along medial-lateral axis of anterior surface some metapodial bone of digit 3</v>
       </c>
     </row>
@@ -3603,7 +3732,7 @@
         <v>439</v>
       </c>
       <c r="D47" t="str">
-        <f>"line along "&amp;B47&amp;" of "&amp;C47</f>
+        <f t="shared" si="0"/>
         <v>line along anterior-posterior axis of proximal surface some metapodial bone of digit 4</v>
       </c>
     </row>
@@ -4447,7 +4576,7 @@
         <v>307</v>
       </c>
       <c r="D2" t="str">
-        <f>"line along "&amp;B2&amp;" of "&amp;C2</f>
+        <f t="shared" ref="D2:D46" si="0">"line along "&amp;B2&amp;" of "&amp;C2</f>
         <v>line along proximal-distal axis of metacarpal bone</v>
       </c>
     </row>
@@ -4462,7 +4591,7 @@
         <v>293</v>
       </c>
       <c r="D3" t="str">
-        <f>"line along "&amp;B3&amp;" of "&amp;C3</f>
+        <f t="shared" si="0"/>
         <v>line along medial-lateral axis of distal surface some metacarpal bone of digit 2</v>
       </c>
     </row>
@@ -4477,7 +4606,7 @@
         <v>293</v>
       </c>
       <c r="D4" t="str">
-        <f>"line along "&amp;B4&amp;" of "&amp;C4</f>
+        <f t="shared" si="0"/>
         <v>line along anterior-posterior axis of distal surface some metacarpal bone of digit 2</v>
       </c>
     </row>
@@ -4492,7 +4621,7 @@
         <v>302</v>
       </c>
       <c r="D5" t="str">
-        <f>"line along "&amp;B5&amp;" of "&amp;C5</f>
+        <f t="shared" si="0"/>
         <v>line along anterior-posterior axis of proximal surface some metacarpal bone of digit 2</v>
       </c>
     </row>
@@ -4507,7 +4636,7 @@
         <v>309</v>
       </c>
       <c r="D6" t="str">
-        <f>"line along "&amp;B6&amp;" of "&amp;C6</f>
+        <f t="shared" si="0"/>
         <v>line along proximal-distal axis of metacarpal bone of digit 2</v>
       </c>
     </row>
@@ -4522,7 +4651,7 @@
         <v>361</v>
       </c>
       <c r="D7" t="str">
-        <f>"line along "&amp;B7&amp;" of "&amp;C7</f>
+        <f t="shared" si="0"/>
         <v>line along anterior-posterior axis of medial surface some metacarpal bone of digit 2</v>
       </c>
     </row>
@@ -4537,7 +4666,7 @@
         <v>302</v>
       </c>
       <c r="D8" t="str">
-        <f>"line along "&amp;B8&amp;" of "&amp;C8</f>
+        <f t="shared" si="0"/>
         <v>line along medial-lateral axis of proximal surface some metacarpal bone of digit 2</v>
       </c>
     </row>
@@ -4552,7 +4681,7 @@
         <v>300</v>
       </c>
       <c r="D9" t="str">
-        <f>"line along "&amp;B9&amp;" of "&amp;C9</f>
+        <f t="shared" si="0"/>
         <v>line along proximal-distal axis of proximal surface some metacarpal bone of digit 3</v>
       </c>
     </row>
@@ -4567,7 +4696,7 @@
         <v>300</v>
       </c>
       <c r="D10" t="str">
-        <f>"line along "&amp;B10&amp;" of "&amp;C10</f>
+        <f t="shared" si="0"/>
         <v>line along proximal-distal axis of proximal surface some metacarpal bone of digit 3</v>
       </c>
     </row>
@@ -4582,7 +4711,7 @@
         <v>300</v>
       </c>
       <c r="D11" t="str">
-        <f>"line along "&amp;B11&amp;" of "&amp;C11</f>
+        <f t="shared" si="0"/>
         <v>line along proximal-distal axis of proximal surface some metacarpal bone of digit 3</v>
       </c>
     </row>
@@ -4597,7 +4726,7 @@
         <v>446</v>
       </c>
       <c r="D12" t="str">
-        <f>"line along "&amp;B12&amp;" of "&amp;C12</f>
+        <f t="shared" si="0"/>
         <v>line along anterior-posterior axis of diaphysis some metacarpal bone of digit 3</v>
       </c>
     </row>
@@ -4612,7 +4741,7 @@
         <v>375</v>
       </c>
       <c r="D13" t="str">
-        <f>"line along "&amp;B13&amp;" of "&amp;C13</f>
+        <f t="shared" si="0"/>
         <v>line along anterior-posterior axis of lateral surface some metacarpal bone of digit 3</v>
       </c>
     </row>
@@ -4627,7 +4756,7 @@
         <v>291</v>
       </c>
       <c r="D14" t="str">
-        <f>"line along "&amp;B14&amp;" of "&amp;C14</f>
+        <f t="shared" si="0"/>
         <v>line along medial-lateral axis of distal surface some metacarpal bone of digit 3</v>
       </c>
     </row>
@@ -4642,7 +4771,7 @@
         <v>291</v>
       </c>
       <c r="D15" t="str">
-        <f>"line along "&amp;B15&amp;" of "&amp;C15</f>
+        <f t="shared" si="0"/>
         <v>line along medial-lateral axis of distal surface some metacarpal bone of digit 3</v>
       </c>
     </row>
@@ -4657,7 +4786,7 @@
         <v>346</v>
       </c>
       <c r="D16" t="str">
-        <f>"line along "&amp;B16&amp;" of "&amp;C16</f>
+        <f t="shared" si="0"/>
         <v>line along anterior-posterior axis of distal keel of metacarpal bone of digit 3</v>
       </c>
     </row>
@@ -4672,7 +4801,7 @@
         <v>356</v>
       </c>
       <c r="D17" t="str">
-        <f>"line along "&amp;B17&amp;" of "&amp;C17</f>
+        <f t="shared" si="0"/>
         <v>line along anterior-posterior axis of medial condyle of metacarpal bone of digit 3</v>
       </c>
     </row>
@@ -4687,7 +4816,7 @@
         <v>354</v>
       </c>
       <c r="D18" t="str">
-        <f>"line along "&amp;B18&amp;" of "&amp;C18</f>
+        <f t="shared" si="0"/>
         <v>line along anterior-posterior axis of lateral condyle of metacarpal bone of digit 3</v>
       </c>
     </row>
@@ -4702,7 +4831,7 @@
         <v>291</v>
       </c>
       <c r="D19" t="str">
-        <f>"line along "&amp;B19&amp;" of "&amp;C19</f>
+        <f t="shared" si="0"/>
         <v>line along medial-lateral axis of distal surface some metacarpal bone of digit 3</v>
       </c>
     </row>
@@ -4717,7 +4846,7 @@
         <v>300</v>
       </c>
       <c r="D20" t="str">
-        <f>"line along "&amp;B20&amp;" of "&amp;C20</f>
+        <f t="shared" si="0"/>
         <v>line along anterior-posterior axis of proximal surface some metacarpal bone of digit 3</v>
       </c>
     </row>
@@ -4732,7 +4861,7 @@
         <v>375</v>
       </c>
       <c r="D21" t="str">
-        <f>"line along "&amp;B21&amp;" of "&amp;C21</f>
+        <f t="shared" si="0"/>
         <v>line along proximal-distal axis of lateral surface some metacarpal bone of digit 3</v>
       </c>
     </row>
@@ -4747,7 +4876,7 @@
         <v>311</v>
       </c>
       <c r="D22" t="str">
-        <f>"line along "&amp;B22&amp;" of "&amp;C22</f>
+        <f t="shared" si="0"/>
         <v>line along proximal-distal axis of metacarpal bone of digit 3</v>
       </c>
     </row>
@@ -4762,7 +4891,7 @@
         <v>359</v>
       </c>
       <c r="D23" t="str">
-        <f>"line along "&amp;B23&amp;" of "&amp;C23</f>
+        <f t="shared" si="0"/>
         <v>line along proximal-distal axis of medial surface some metacarpal bone of digit 3</v>
       </c>
     </row>
@@ -4777,7 +4906,7 @@
         <v>329</v>
       </c>
       <c r="D24" t="str">
-        <f>"line along "&amp;B24&amp;" of "&amp;C24</f>
+        <f t="shared" si="0"/>
         <v>line along medial-lateral axis of anterior surface some metacarpal bone of digit 3</v>
       </c>
     </row>
@@ -4792,7 +4921,7 @@
         <v>300</v>
       </c>
       <c r="D25" t="str">
-        <f>"line along "&amp;B25&amp;" of "&amp;C25</f>
+        <f t="shared" si="0"/>
         <v>line along medial-lateral axis of proximal surface some metacarpal bone of digit 3</v>
       </c>
     </row>
@@ -4807,7 +4936,7 @@
         <v>300</v>
       </c>
       <c r="D26" t="str">
-        <f>"line along "&amp;B26&amp;" of "&amp;C26</f>
+        <f t="shared" si="0"/>
         <v>line along anterior-posterior axis of proximal surface some metacarpal bone of digit 3</v>
       </c>
     </row>
@@ -4819,7 +4948,7 @@
         <v>446</v>
       </c>
       <c r="D27" t="str">
-        <f>"line along "&amp;B27&amp;" of "&amp;C27</f>
+        <f t="shared" si="0"/>
         <v>line along  of diaphysis some metacarpal bone of digit 3</v>
       </c>
     </row>
@@ -4834,7 +4963,7 @@
         <v>400</v>
       </c>
       <c r="D28" t="str">
-        <f>"line along "&amp;B28&amp;" of "&amp;C28</f>
+        <f t="shared" si="0"/>
         <v>line along medial-lateral axis of distal surface some fused metapodial bones 3 and 4</v>
       </c>
     </row>
@@ -4849,7 +4978,7 @@
         <v>400</v>
       </c>
       <c r="D29" t="str">
-        <f>"line along "&amp;B29&amp;" of "&amp;C29</f>
+        <f t="shared" si="0"/>
         <v>line along anterior-posterior axis of distal surface some fused metapodial bones 3 and 4</v>
       </c>
     </row>
@@ -4864,7 +4993,7 @@
         <v>392</v>
       </c>
       <c r="D30" t="str">
-        <f>"line along "&amp;B30&amp;" of "&amp;C30</f>
+        <f t="shared" si="0"/>
         <v>line along proximal-distal axis of fused metacarpal bones 3 and 4</v>
       </c>
     </row>
@@ -4879,7 +5008,7 @@
         <v>394</v>
       </c>
       <c r="D31" t="str">
-        <f>"line along "&amp;B31&amp;" of "&amp;C31</f>
+        <f t="shared" si="0"/>
         <v>line along medial-lateral axis of proximal surface some fused metacarpal bones 3 and 4</v>
       </c>
     </row>
@@ -4894,7 +5023,7 @@
         <v>394</v>
       </c>
       <c r="D32" t="str">
-        <f>"line along "&amp;B32&amp;" of "&amp;C32</f>
+        <f t="shared" si="0"/>
         <v>line along anterior-posterior axis of proximal surface some fused metacarpal bones 3 and 4</v>
       </c>
     </row>
@@ -4909,7 +5038,7 @@
         <v>397</v>
       </c>
       <c r="D33" t="str">
-        <f>"line along "&amp;B33&amp;" of "&amp;C33</f>
+        <f t="shared" si="0"/>
         <v>line along medial-lateral axis of diaphysis some fused metacarpal bones 3 ad 4</v>
       </c>
     </row>
@@ -4921,7 +5050,7 @@
         <v>397</v>
       </c>
       <c r="D34" t="str">
-        <f>"line along "&amp;B34&amp;" of "&amp;C34</f>
+        <f t="shared" si="0"/>
         <v>line along  of diaphysis some fused metacarpal bones 3 ad 4</v>
       </c>
     </row>
@@ -4936,7 +5065,7 @@
         <v>429</v>
       </c>
       <c r="D35" t="str">
-        <f>"line along "&amp;B35&amp;" of "&amp;C35</f>
+        <f t="shared" si="0"/>
         <v>line along medial-lateral axis of diaphysis some metacarpal bone of digit 4</v>
       </c>
     </row>
@@ -4951,7 +5080,7 @@
         <v>295</v>
       </c>
       <c r="D36" t="str">
-        <f>"line along "&amp;B36&amp;" of "&amp;C36</f>
+        <f t="shared" si="0"/>
         <v>line along medial-lateral axis of distal surface some metacarpal bone of digit 4</v>
       </c>
     </row>
@@ -4966,7 +5095,7 @@
         <v>295</v>
       </c>
       <c r="D37" t="str">
-        <f>"line along "&amp;B37&amp;" of "&amp;C37</f>
+        <f t="shared" si="0"/>
         <v>line along anterior-posterior axis of distal surface some metacarpal bone of digit 4</v>
       </c>
     </row>
@@ -4981,7 +5110,7 @@
         <v>295</v>
       </c>
       <c r="D38" t="str">
-        <f>"line along "&amp;B38&amp;" of "&amp;C38</f>
+        <f t="shared" si="0"/>
         <v>line along medial-lateral axis of distal surface some metacarpal bone of digit 4</v>
       </c>
     </row>
@@ -4996,7 +5125,7 @@
         <v>304</v>
       </c>
       <c r="D39" t="str">
-        <f>"line along "&amp;B39&amp;" of "&amp;C39</f>
+        <f t="shared" si="0"/>
         <v>line along anterior-posterior axis of proximal surface some metacarpal bone of digit 4</v>
       </c>
     </row>
@@ -5011,7 +5140,7 @@
         <v>313</v>
       </c>
       <c r="D40" t="str">
-        <f>"line along "&amp;B40&amp;" of "&amp;C40</f>
+        <f t="shared" si="0"/>
         <v>line along proximal-distal axis of metacarpal bone of digit 4</v>
       </c>
     </row>
@@ -5026,7 +5155,7 @@
         <v>313</v>
       </c>
       <c r="D41" t="str">
-        <f>"line along "&amp;B41&amp;" of "&amp;C41</f>
+        <f t="shared" si="0"/>
         <v>line along proximal-distal axis of metacarpal bone of digit 4</v>
       </c>
     </row>
@@ -5041,7 +5170,7 @@
         <v>363</v>
       </c>
       <c r="D42" t="str">
-        <f>"line along "&amp;B42&amp;" of "&amp;C42</f>
+        <f t="shared" si="0"/>
         <v>line along anterior-posterior axis of medial surface some metacarpal bone of digit 4</v>
       </c>
     </row>
@@ -5056,7 +5185,7 @@
         <v>304</v>
       </c>
       <c r="D43" t="str">
-        <f>"line along "&amp;B43&amp;" of "&amp;C43</f>
+        <f t="shared" si="0"/>
         <v>line along medial-lateral axis of proximal surface some metacarpal bone of digit 4</v>
       </c>
     </row>
@@ -5071,7 +5200,7 @@
         <v>304</v>
       </c>
       <c r="D44" t="str">
-        <f>"line along "&amp;B44&amp;" of "&amp;C44</f>
+        <f t="shared" si="0"/>
         <v>line along medial-lateral axis of proximal surface some metacarpal bone of digit 4</v>
       </c>
     </row>
@@ -5086,7 +5215,7 @@
         <v>458</v>
       </c>
       <c r="D45" t="str">
-        <f>"line along "&amp;B45&amp;" of "&amp;C45</f>
+        <f t="shared" si="0"/>
         <v>line along medial-lateral axis of distal surface some metacarpal bone of digit 5</v>
       </c>
     </row>
@@ -5101,7 +5230,7 @@
         <v>452</v>
       </c>
       <c r="D46" t="str">
-        <f>"line along "&amp;B46&amp;" of "&amp;C46</f>
+        <f t="shared" si="0"/>
         <v>line along proximal-distal axis of metacarpal bone of digit 5</v>
       </c>
     </row>
@@ -5226,11 +5355,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F0AE93-8D78-ED49-A671-302F191049AB}">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="51.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="0" hidden="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -5259,6 +5393,9 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>525</v>
+      </c>
       <c r="B2" t="s">
         <v>252</v>
       </c>
@@ -5309,6 +5446,9 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>525</v>
+      </c>
       <c r="B6" t="s">
         <v>252</v>
       </c>
@@ -5441,7 +5581,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>252</v>
       </c>
@@ -5452,7 +5592,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>525</v>
+      </c>
       <c r="B18" t="s">
         <v>252</v>
       </c>
@@ -5466,7 +5609,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>252</v>
       </c>
@@ -5477,7 +5620,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>252</v>
       </c>
@@ -5491,7 +5634,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>252</v>
       </c>
@@ -5505,7 +5648,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>252</v>
       </c>
@@ -5519,7 +5662,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>252</v>
       </c>
@@ -5530,7 +5673,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>252</v>
       </c>
@@ -5541,7 +5684,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>525</v>
+      </c>
       <c r="B25" t="s">
         <v>252</v>
       </c>
@@ -5555,7 +5701,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>252</v>
       </c>
@@ -5566,7 +5712,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>252</v>
       </c>
@@ -5580,7 +5726,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>525</v>
+      </c>
       <c r="B28" t="s">
         <v>252</v>
       </c>
@@ -5591,7 +5740,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>252</v>
       </c>
@@ -5602,7 +5751,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>252</v>
       </c>
@@ -5613,7 +5762,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>252</v>
       </c>
@@ -5624,7 +5773,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>252</v>
       </c>
@@ -5635,7 +5784,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>252</v>
       </c>
@@ -5646,7 +5795,10 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>526</v>
+      </c>
       <c r="B34" t="s">
         <v>252</v>
       </c>
@@ -5660,7 +5812,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>252</v>
       </c>
@@ -5674,7 +5826,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>252</v>
       </c>
@@ -5685,7 +5837,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>252</v>
       </c>
@@ -5699,7 +5851,10 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>525</v>
+      </c>
       <c r="B38" t="s">
         <v>252</v>
       </c>
@@ -5710,7 +5865,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>252</v>
       </c>
@@ -5721,7 +5876,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>252</v>
       </c>
@@ -5732,7 +5887,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>252</v>
       </c>
@@ -5746,7 +5901,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>252</v>
       </c>
@@ -5760,7 +5915,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>252</v>
       </c>
@@ -5771,7 +5926,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>252</v>
       </c>
@@ -5782,7 +5937,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>252</v>
       </c>
@@ -5791,7 +5946,7 @@
       </c>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>252</v>
       </c>
@@ -5802,7 +5957,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>252</v>
       </c>
@@ -5813,7 +5968,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>252</v>
       </c>
@@ -5824,7 +5979,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>252</v>
       </c>
@@ -5835,7 +5990,10 @@
         <v>165</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>526</v>
+      </c>
       <c r="B50" t="s">
         <v>252</v>
       </c>
@@ -5846,19 +6004,19 @@
         <v>166</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>247</v>
       </c>
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>248</v>
       </c>
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>252</v>
       </c>
@@ -5869,7 +6027,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>252</v>
       </c>
@@ -5882,6 +6040,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -5889,11 +6048,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2D4D08-8D05-E14C-80F5-CDA3C06B90AF}">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="N60" sqref="N60:N66"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="55.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -5920,7 +6082,7 @@
         <v>338</v>
       </c>
       <c r="D2" t="str">
-        <f>"line along "&amp;B2&amp;" of "&amp;C2</f>
+        <f t="shared" ref="D2:D44" si="0">"line along "&amp;B2&amp;" of "&amp;C2</f>
         <v>line along proximal-distal axis of metatarsal bone</v>
       </c>
     </row>
@@ -5935,7 +6097,7 @@
         <v>323</v>
       </c>
       <c r="D3" t="str">
-        <f>"line along "&amp;B3&amp;" of "&amp;C3</f>
+        <f t="shared" si="0"/>
         <v>line along medial-lateral axis of distal surface some metatarsal bone of digit 2</v>
       </c>
     </row>
@@ -5950,7 +6112,7 @@
         <v>323</v>
       </c>
       <c r="D4" t="str">
-        <f>"line along "&amp;B4&amp;" of "&amp;C4</f>
+        <f t="shared" si="0"/>
         <v>line along anterior-posterior axis of distal surface some metatarsal bone of digit 2</v>
       </c>
     </row>
@@ -5965,7 +6127,7 @@
         <v>315</v>
       </c>
       <c r="D5" t="str">
-        <f>"line along "&amp;B5&amp;" of "&amp;C5</f>
+        <f t="shared" si="0"/>
         <v>line along anterior-posterior axis of proximal surface some metatarsal bone of digit 2</v>
       </c>
     </row>
@@ -5980,7 +6142,7 @@
         <v>340</v>
       </c>
       <c r="D6" t="str">
-        <f>"line along "&amp;B6&amp;" of "&amp;C6</f>
+        <f t="shared" si="0"/>
         <v>line along proximal-distal axis of metatarsal bone of digit 2</v>
       </c>
     </row>
@@ -5995,7 +6157,7 @@
         <v>366</v>
       </c>
       <c r="D7" t="str">
-        <f>"line along "&amp;B7&amp;" of "&amp;C7</f>
+        <f t="shared" si="0"/>
         <v>line along anterior-posterior axis of medial surface osome metatarsal bone of digit 2</v>
       </c>
     </row>
@@ -6010,7 +6172,7 @@
         <v>315</v>
       </c>
       <c r="D8" t="str">
-        <f>"line along "&amp;B8&amp;" of "&amp;C8</f>
+        <f t="shared" si="0"/>
         <v>line along medial-lateral axis of proximal surface some metatarsal bone of digit 2</v>
       </c>
     </row>
@@ -6025,7 +6187,7 @@
         <v>327</v>
       </c>
       <c r="D9" t="str">
-        <f>"line along "&amp;B9&amp;" of "&amp;C9</f>
+        <f t="shared" si="0"/>
         <v>line along proximal-distal axis of proximal surface some metatarsal bone of digit 3</v>
       </c>
     </row>
@@ -6040,7 +6202,7 @@
         <v>327</v>
       </c>
       <c r="D10" t="str">
-        <f>"line along "&amp;B10&amp;" of "&amp;C10</f>
+        <f t="shared" si="0"/>
         <v>line along proximal-distal axis of proximal surface some metatarsal bone of digit 3</v>
       </c>
     </row>
@@ -6055,7 +6217,7 @@
         <v>377</v>
       </c>
       <c r="D11" t="str">
-        <f>"line along "&amp;B11&amp;" of "&amp;C11</f>
+        <f t="shared" si="0"/>
         <v>line along anterior-posterior axis of lateral surface some metatarsal bone of digit 3</v>
       </c>
     </row>
@@ -6070,7 +6232,7 @@
         <v>321</v>
       </c>
       <c r="D12" t="str">
-        <f>"line along "&amp;B12&amp;" of "&amp;C12</f>
+        <f t="shared" si="0"/>
         <v>line along medial-lateral axis of distal surface some metatarsal bone of digit 3</v>
       </c>
     </row>
@@ -6085,7 +6247,7 @@
         <v>478</v>
       </c>
       <c r="D13" t="str">
-        <f>"line along "&amp;B13&amp;" of "&amp;C13</f>
+        <f t="shared" si="0"/>
         <v>line along medial-lateral axis of distal surface some metarsal bone of digit 3</v>
       </c>
     </row>
@@ -6100,7 +6262,7 @@
         <v>348</v>
       </c>
       <c r="D14" t="str">
-        <f>"line along "&amp;B14&amp;" of "&amp;C14</f>
+        <f t="shared" si="0"/>
         <v>line along anterior-posterior axis of distal keel of metatarsal bone of digit 3</v>
       </c>
     </row>
@@ -6115,7 +6277,7 @@
         <v>352</v>
       </c>
       <c r="D15" t="str">
-        <f>"line along "&amp;B15&amp;" of "&amp;C15</f>
+        <f t="shared" si="0"/>
         <v>line along anterior-posterior axis of medial condyle of metatarsal bone of digit 3</v>
       </c>
     </row>
@@ -6130,7 +6292,7 @@
         <v>350</v>
       </c>
       <c r="D16" t="str">
-        <f>"line along "&amp;B16&amp;" of "&amp;C16</f>
+        <f t="shared" si="0"/>
         <v>line along anterior-posterior axis of lateral condyle of metatarsal bone of digit 3</v>
       </c>
     </row>
@@ -6145,7 +6307,7 @@
         <v>321</v>
       </c>
       <c r="D17" t="str">
-        <f>"line along "&amp;B17&amp;" of "&amp;C17</f>
+        <f t="shared" si="0"/>
         <v>line along medial-lateral axis of distal surface some metatarsal bone of digit 3</v>
       </c>
     </row>
@@ -6160,7 +6322,7 @@
         <v>327</v>
       </c>
       <c r="D18" t="str">
-        <f>"line along "&amp;B18&amp;" of "&amp;C18</f>
+        <f t="shared" si="0"/>
         <v>line along anterior-posterior axis of proximal surface some metatarsal bone of digit 3</v>
       </c>
     </row>
@@ -6175,7 +6337,7 @@
         <v>377</v>
       </c>
       <c r="D19" t="str">
-        <f>"line along "&amp;B19&amp;" of "&amp;C19</f>
+        <f t="shared" si="0"/>
         <v>line along proximal-distal axis of lateral surface some metatarsal bone of digit 3</v>
       </c>
     </row>
@@ -6190,7 +6352,7 @@
         <v>342</v>
       </c>
       <c r="D20" t="str">
-        <f>"line along "&amp;B20&amp;" of "&amp;C20</f>
+        <f t="shared" si="0"/>
         <v>line along proximal-distal axis of metatarsal bone of digit 3</v>
       </c>
     </row>
@@ -6205,7 +6367,7 @@
         <v>342</v>
       </c>
       <c r="D21" t="str">
-        <f>"line along "&amp;B21&amp;" of "&amp;C21</f>
+        <f t="shared" si="0"/>
         <v>line along proximal-distal axis of metatarsal bone of digit 3</v>
       </c>
     </row>
@@ -6220,7 +6382,7 @@
         <v>331</v>
       </c>
       <c r="D22" t="str">
-        <f>"line along "&amp;B22&amp;" of "&amp;C22</f>
+        <f t="shared" si="0"/>
         <v>line along medial-lateral axis of anterior surface some metatarsal bone of digit 3</v>
       </c>
     </row>
@@ -6235,7 +6397,7 @@
         <v>327</v>
       </c>
       <c r="D23" t="str">
-        <f>"line along "&amp;B23&amp;" of "&amp;C23</f>
+        <f t="shared" si="0"/>
         <v>line along medial-lateral axis of proximal surface some metatarsal bone of digit 3</v>
       </c>
     </row>
@@ -6250,7 +6412,7 @@
         <v>327</v>
       </c>
       <c r="D24" t="str">
-        <f>"line along "&amp;B24&amp;" of "&amp;C24</f>
+        <f t="shared" si="0"/>
         <v>line along anterior-posterior axis of proximal surface some metatarsal bone of digit 3</v>
       </c>
     </row>
@@ -6262,7 +6424,7 @@
         <v>476</v>
       </c>
       <c r="D25" t="str">
-        <f>"line along "&amp;B25&amp;" of "&amp;C25</f>
+        <f t="shared" si="0"/>
         <v>line along  of diaphysis some metatarsal bone of digit 3</v>
       </c>
     </row>
@@ -6277,7 +6439,7 @@
         <v>411</v>
       </c>
       <c r="D26" t="str">
-        <f>"line along "&amp;B26&amp;" of "&amp;C26</f>
+        <f t="shared" si="0"/>
         <v>line along medial-lateral axis of distal surface some fused metatarsal bones 3 and 4</v>
       </c>
     </row>
@@ -6292,7 +6454,7 @@
         <v>411</v>
       </c>
       <c r="D27" t="str">
-        <f>"line along "&amp;B27&amp;" of "&amp;C27</f>
+        <f t="shared" si="0"/>
         <v>line along anterior-posterior axis of distal surface some fused metatarsal bones 3 and 4</v>
       </c>
     </row>
@@ -6307,7 +6469,7 @@
         <v>403</v>
       </c>
       <c r="D28" t="str">
-        <f>"line along "&amp;B28&amp;" of "&amp;C28</f>
+        <f t="shared" si="0"/>
         <v>line along proximal-distal axis of fused metatarsal bones 3 and 4</v>
       </c>
     </row>
@@ -6322,7 +6484,7 @@
         <v>405</v>
       </c>
       <c r="D29" t="str">
-        <f>"line along "&amp;B29&amp;" of "&amp;C29</f>
+        <f t="shared" si="0"/>
         <v>line along medial-lateral axis of proximal surface some fused metatarsal bones 3 and 4</v>
       </c>
     </row>
@@ -6337,7 +6499,7 @@
         <v>405</v>
       </c>
       <c r="D30" t="str">
-        <f>"line along "&amp;B30&amp;" of "&amp;C30</f>
+        <f t="shared" si="0"/>
         <v>line along anterior-posterior axis of proximal surface some fused metatarsal bones 3 and 4</v>
       </c>
     </row>
@@ -6352,7 +6514,7 @@
         <v>408</v>
       </c>
       <c r="D31" t="str">
-        <f>"line along "&amp;B31&amp;" of "&amp;C31</f>
+        <f t="shared" si="0"/>
         <v>line along medial-lateral axis of diaphysis some fused metatarsal bones 3 and 4</v>
       </c>
     </row>
@@ -6364,7 +6526,7 @@
         <v>408</v>
       </c>
       <c r="D32" t="str">
-        <f>"line along "&amp;B32&amp;" of "&amp;C32</f>
+        <f t="shared" si="0"/>
         <v>line along  of diaphysis some fused metatarsal bones 3 and 4</v>
       </c>
     </row>
@@ -6379,7 +6541,7 @@
         <v>434</v>
       </c>
       <c r="D33" t="str">
-        <f>"line along "&amp;B33&amp;" of "&amp;C33</f>
+        <f t="shared" si="0"/>
         <v>line along medial-lateral axis of diaphysis some metatarsal bone of digit 4</v>
       </c>
     </row>
@@ -6394,7 +6556,7 @@
         <v>325</v>
       </c>
       <c r="D34" t="str">
-        <f>"line along "&amp;B34&amp;" of "&amp;C34</f>
+        <f t="shared" si="0"/>
         <v>line along medial-lateral axis of distal surface some metatarsal bone of digit 4</v>
       </c>
     </row>
@@ -6409,7 +6571,7 @@
         <v>325</v>
       </c>
       <c r="D35" t="str">
-        <f>"line along "&amp;B35&amp;" of "&amp;C35</f>
+        <f t="shared" si="0"/>
         <v>line along anterior-posterior axis of distal surface some metatarsal bone of digit 4</v>
       </c>
     </row>
@@ -6424,7 +6586,7 @@
         <v>325</v>
       </c>
       <c r="D36" t="str">
-        <f>"line along "&amp;B36&amp;" of "&amp;C36</f>
+        <f t="shared" si="0"/>
         <v>line along medial-lateral axis of distal surface some metatarsal bone of digit 4</v>
       </c>
     </row>
@@ -6439,7 +6601,7 @@
         <v>317</v>
       </c>
       <c r="D37" t="str">
-        <f>"line along "&amp;B37&amp;" of "&amp;C37</f>
+        <f t="shared" si="0"/>
         <v>line along anterior-posterior axis of proximal surface some metatarsal bone of digit 4</v>
       </c>
     </row>
@@ -6454,7 +6616,7 @@
         <v>344</v>
       </c>
       <c r="D38" t="str">
-        <f>"line along "&amp;B38&amp;" of "&amp;C38</f>
+        <f t="shared" si="0"/>
         <v>line along proximal-distal axis of metatarsal bone of digit 4</v>
       </c>
     </row>
@@ -6469,7 +6631,7 @@
         <v>344</v>
       </c>
       <c r="D39" t="str">
-        <f>"line along "&amp;B39&amp;" of "&amp;C39</f>
+        <f t="shared" si="0"/>
         <v>line along proximal-distal axis of metatarsal bone of digit 4</v>
       </c>
     </row>
@@ -6484,7 +6646,7 @@
         <v>368</v>
       </c>
       <c r="D40" t="str">
-        <f>"line along "&amp;B40&amp;" of "&amp;C40</f>
+        <f t="shared" si="0"/>
         <v>line along anterior-posterior axis of medial surface some metatarsal bone of digit 4</v>
       </c>
     </row>
@@ -6499,7 +6661,7 @@
         <v>317</v>
       </c>
       <c r="D41" t="str">
-        <f>"line along "&amp;B41&amp;" of "&amp;C41</f>
+        <f t="shared" si="0"/>
         <v>line along medial-lateral axis of proximal surface some metatarsal bone of digit 4</v>
       </c>
     </row>
@@ -6514,7 +6676,7 @@
         <v>317</v>
       </c>
       <c r="D42" t="str">
-        <f>"line along "&amp;B42&amp;" of "&amp;C42</f>
+        <f t="shared" si="0"/>
         <v>line along medial-lateral axis of proximal surface some metatarsal bone of digit 4</v>
       </c>
     </row>
@@ -6529,7 +6691,7 @@
         <v>460</v>
       </c>
       <c r="D43" t="str">
-        <f>"line along "&amp;B43&amp;" of "&amp;C43</f>
+        <f t="shared" si="0"/>
         <v>line along medial-lateral axis of distal surface some metatarsal bone of digit 5</v>
       </c>
     </row>
@@ -6544,7 +6706,7 @@
         <v>454</v>
       </c>
       <c r="D44" t="str">
-        <f>"line along "&amp;B44&amp;" of "&amp;C44</f>
+        <f t="shared" si="0"/>
         <v>line along proximal-distal axis of metatarsal bone of digit 5</v>
       </c>
     </row>

--- a/terms/metapodialTerms.xlsx
+++ b/terms/metapodialTerms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{231D3AE7-A5A4-7F43-8411-5122799DC85B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265FF7D3-4ECF-8542-8676-9EEED7AF3E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16420" yWindow="500" windowWidth="12380" windowHeight="16640" firstSheet="6" activeTab="9" xr2:uid="{4B25A08D-3FDD-7049-9343-BD8F323342BE}"/>
+    <workbookView xWindow="12500" yWindow="500" windowWidth="16300" windowHeight="16640" firstSheet="4" activeTab="9" xr2:uid="{4B25A08D-3FDD-7049-9343-BD8F323342BE}"/>
   </bookViews>
   <sheets>
     <sheet name="metapodial" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="551">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -1660,6 +1660,33 @@
   </si>
   <si>
     <t>metacarpal bone of digit 3 proximal articular surface</t>
+  </si>
+  <si>
+    <t>OBA:0004033</t>
+  </si>
+  <si>
+    <t>in OBA</t>
+  </si>
+  <si>
+    <t>metapodial bone of digit 3</t>
+  </si>
+  <si>
+    <t>in fovt; no logic</t>
+  </si>
+  <si>
+    <t>Metapodial III greatest length</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>in UBERON</t>
+  </si>
+  <si>
+    <t>lateral condyle of metapodial III</t>
+  </si>
+  <si>
+    <t>medial condyle of metapodial III</t>
   </si>
 </sst>
 </file>
@@ -2018,10 +2045,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4722D6BB-E080-B04E-95CE-58C5C3C496EF}">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2053,6 +2080,9 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>525</v>
+      </c>
       <c r="B2" t="s">
         <v>252</v>
       </c>
@@ -2119,6 +2149,9 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>525</v>
+      </c>
       <c r="B8" t="s">
         <v>252</v>
       </c>
@@ -2199,6 +2232,9 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>545</v>
+      </c>
       <c r="B15" t="s">
         <v>252</v>
       </c>
@@ -2226,7 +2262,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>252</v>
       </c>
@@ -2237,7 +2273,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>252</v>
       </c>
@@ -2251,7 +2287,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>252</v>
       </c>
@@ -2262,7 +2298,10 @@
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>545</v>
+      </c>
       <c r="B20" t="s">
         <v>252</v>
       </c>
@@ -2276,7 +2315,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>545</v>
+      </c>
       <c r="B21" t="s">
         <v>252</v>
       </c>
@@ -2287,7 +2329,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>252</v>
       </c>
@@ -2298,7 +2340,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>252</v>
       </c>
@@ -2309,7 +2351,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>252</v>
       </c>
@@ -2323,7 +2365,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>252</v>
       </c>
@@ -2337,7 +2379,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>252</v>
       </c>
@@ -2348,7 +2390,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>252</v>
       </c>
@@ -2359,7 +2401,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>252</v>
       </c>
@@ -2370,7 +2412,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>252</v>
       </c>
@@ -2384,7 +2426,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>252</v>
       </c>
@@ -2398,7 +2440,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>252</v>
       </c>
@@ -2412,7 +2454,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>252</v>
       </c>
@@ -2608,7 +2650,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>252</v>
       </c>
@@ -2616,7 +2658,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>252</v>
       </c>
@@ -2627,7 +2669,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>252</v>
       </c>
@@ -2638,7 +2680,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>252</v>
       </c>
@@ -2647,6 +2689,14 @@
       </c>
       <c r="F52" t="s">
         <v>262</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>545</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>546</v>
       </c>
     </row>
   </sheetData>
@@ -2656,374 +2706,413 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C69CCF6-5492-0A4C-9378-BA66BC6E8B2A}">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B1" t="s">
         <v>168</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>169</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>170</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>548</v>
+      </c>
+      <c r="B2" t="s">
         <v>172</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>173</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
         <v>175</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>173</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
         <v>177</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
         <v>179</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
         <v>180</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
         <v>182</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
         <v>184</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
         <v>186</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D10" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
         <v>188</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D11" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
         <v>190</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D13" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
         <v>192</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D14" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
         <v>194</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D16" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
         <v>196</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D17" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
         <v>198</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D18" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
         <v>200</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D19" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
         <v>202</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D20" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
         <v>204</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D21" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
         <v>206</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D22" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
         <v>208</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D23" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
         <v>210</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D24" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
         <v>212</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D25" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
         <v>214</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D26" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
         <v>216</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D27" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
         <v>218</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D28" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
         <v>220</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D29" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
         <v>222</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D30" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
         <v>224</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D31" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
         <v>226</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D32" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
         <v>228</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D33" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
         <v>230</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D34" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
         <v>232</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D35" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
         <v>234</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D36" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
         <v>236</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D37" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
         <v>541</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -3033,10 +3122,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F5040D-4511-B642-BECA-8C8AF44B1A68}">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3769,6 +3858,11 @@
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>523</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>546</v>
       </c>
     </row>
   </sheetData>
@@ -3784,7 +3878,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD4"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3860,8 +3954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F44ACC-71E7-344D-93EB-ED5246249B1F}">
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57:F59"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3943,6 +4037,9 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>543</v>
+      </c>
       <c r="B9" t="s">
         <v>252</v>
       </c>
@@ -3993,6 +4090,9 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>543</v>
+      </c>
       <c r="B13" t="s">
         <v>252</v>
       </c>
@@ -4042,7 +4142,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>252</v>
       </c>
@@ -4056,7 +4156,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>252</v>
       </c>
@@ -4067,7 +4167,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>252</v>
       </c>
@@ -4078,7 +4178,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>252</v>
       </c>
@@ -4089,7 +4189,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>252</v>
       </c>
@@ -4103,7 +4203,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>252</v>
       </c>
@@ -4114,7 +4214,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>252</v>
       </c>
@@ -4125,7 +4225,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>252</v>
       </c>
@@ -4139,7 +4239,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>252</v>
       </c>
@@ -4150,7 +4250,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>543</v>
+      </c>
       <c r="B26" t="s">
         <v>252</v>
       </c>
@@ -4164,7 +4267,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>252</v>
       </c>
@@ -4175,7 +4278,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>252</v>
       </c>
@@ -4189,7 +4292,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>252</v>
       </c>
@@ -4203,7 +4306,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>252</v>
       </c>
@@ -4217,7 +4320,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>252</v>
       </c>
@@ -4228,7 +4331,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>252</v>
       </c>
@@ -4239,7 +4342,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>543</v>
+      </c>
       <c r="B33" t="s">
         <v>252</v>
       </c>
@@ -4253,7 +4359,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>252</v>
       </c>
@@ -4264,7 +4370,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>252</v>
       </c>
@@ -4278,7 +4384,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>543</v>
+      </c>
       <c r="B36" t="s">
         <v>252</v>
       </c>
@@ -4289,7 +4398,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>252</v>
       </c>
@@ -4300,7 +4409,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>252</v>
       </c>
@@ -4311,7 +4420,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>252</v>
       </c>
@@ -4322,7 +4431,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>252</v>
       </c>
@@ -4333,7 +4442,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>252</v>
       </c>
@@ -4344,7 +4453,10 @@
         <v>94</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>543</v>
+      </c>
       <c r="B42" t="s">
         <v>252</v>
       </c>
@@ -4358,7 +4470,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>252</v>
       </c>
@@ -4372,7 +4484,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>252</v>
       </c>
@@ -4383,7 +4495,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>252</v>
       </c>
@@ -4397,7 +4509,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>252</v>
       </c>
@@ -4411,7 +4523,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>543</v>
+      </c>
       <c r="B47" t="s">
         <v>252</v>
       </c>
@@ -4422,7 +4537,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>252</v>
       </c>
@@ -4545,11 +4660,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB13C447-0738-BC42-A8E9-6CC7BFBB0E36}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:A53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="58.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -5355,8 +5473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F0AE93-8D78-ED49-A671-302F191049AB}">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5394,7 +5512,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>525</v>
+        <v>543</v>
       </c>
       <c r="B2" t="s">
         <v>252</v>
@@ -5447,7 +5565,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>525</v>
+        <v>543</v>
       </c>
       <c r="B6" t="s">
         <v>252</v>
@@ -5581,7 +5699,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>252</v>
       </c>
@@ -5592,9 +5710,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>525</v>
+        <v>543</v>
       </c>
       <c r="B18" t="s">
         <v>252</v>
@@ -5609,7 +5727,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>252</v>
       </c>
@@ -5620,7 +5738,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>252</v>
       </c>
@@ -5634,7 +5752,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>252</v>
       </c>
@@ -5647,8 +5765,11 @@
       <c r="G21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>252</v>
       </c>
@@ -5662,7 +5783,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>252</v>
       </c>
@@ -5673,7 +5794,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>252</v>
       </c>
@@ -5684,9 +5805,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>525</v>
+        <v>543</v>
       </c>
       <c r="B25" t="s">
         <v>252</v>
@@ -5701,7 +5822,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>252</v>
       </c>
@@ -5712,7 +5833,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>252</v>
       </c>
@@ -5726,7 +5847,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>525</v>
       </c>
@@ -5740,7 +5861,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>252</v>
       </c>
@@ -5751,7 +5872,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>252</v>
       </c>
@@ -5762,7 +5883,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>252</v>
       </c>
@@ -5773,7 +5894,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>252</v>
       </c>
@@ -5853,7 +5974,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>525</v>
+        <v>543</v>
       </c>
       <c r="B38" t="s">
         <v>252</v>

--- a/terms/metapodialTerms.xlsx
+++ b/terms/metapodialTerms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265FF7D3-4ECF-8542-8676-9EEED7AF3E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC76B03-DDDF-7042-AA7F-B29FDCCD7E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12500" yWindow="500" windowWidth="16300" windowHeight="16640" firstSheet="4" activeTab="9" xr2:uid="{4B25A08D-3FDD-7049-9343-BD8F323342BE}"/>
+    <workbookView xWindow="12500" yWindow="500" windowWidth="16300" windowHeight="16640" firstSheet="4" activeTab="7" xr2:uid="{4B25A08D-3FDD-7049-9343-BD8F323342BE}"/>
   </bookViews>
   <sheets>
     <sheet name="metapodial" sheetId="1" r:id="rId1"/>
@@ -2708,7 +2708,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C69CCF6-5492-0A4C-9378-BA66BC6E8B2A}">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6169,8 +6171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2D4D08-8D05-E14C-80F5-CDA3C06B90AF}">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/terms/metapodialTerms.xlsx
+++ b/terms/metapodialTerms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC76B03-DDDF-7042-AA7F-B29FDCCD7E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78FCD550-DB8F-7B4D-B574-8A258ED2BB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12500" yWindow="500" windowWidth="16300" windowHeight="16640" firstSheet="4" activeTab="7" xr2:uid="{4B25A08D-3FDD-7049-9343-BD8F323342BE}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="16300" windowHeight="16640" firstSheet="4" activeTab="9" xr2:uid="{4B25A08D-3FDD-7049-9343-BD8F323342BE}"/>
   </bookViews>
   <sheets>
     <sheet name="metapodial" sheetId="1" r:id="rId1"/>
@@ -2047,8 +2047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4722D6BB-E080-B04E-95CE-58C5C3C496EF}">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2708,8 +2708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C69CCF6-5492-0A4C-9378-BA66BC6E8B2A}">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3956,8 +3956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F44ACC-71E7-344D-93EB-ED5246249B1F}">
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5475,8 +5475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F0AE93-8D78-ED49-A671-302F191049AB}">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6171,7 +6171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2D4D08-8D05-E14C-80F5-CDA3C06B90AF}">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>

--- a/terms/metapodialTerms.xlsx
+++ b/terms/metapodialTerms.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78FCD550-DB8F-7B4D-B574-8A258ED2BB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0443E0E-0F42-904A-86BD-7F772275B1AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="16300" windowHeight="16640" firstSheet="4" activeTab="9" xr2:uid="{4B25A08D-3FDD-7049-9343-BD8F323342BE}"/>
   </bookViews>
@@ -28,6 +28,13 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>

--- a/terms/metapodialTerms.xlsx
+++ b/terms/metapodialTerms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0443E0E-0F42-904A-86BD-7F772275B1AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA75CB34-A959-6848-B4EE-7F3AB78536F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="16300" windowHeight="16640" firstSheet="4" activeTab="9" xr2:uid="{4B25A08D-3FDD-7049-9343-BD8F323342BE}"/>
+    <workbookView xWindow="-38880" yWindow="5880" windowWidth="16300" windowHeight="16640" firstSheet="1" activeTab="3" xr2:uid="{4B25A08D-3FDD-7049-9343-BD8F323342BE}"/>
   </bookViews>
   <sheets>
     <sheet name="metapodial" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="559">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -1694,6 +1694,30 @@
   </si>
   <si>
     <t>medial condyle of metapodial III</t>
+  </si>
+  <si>
+    <t>metacarpal bone of digit 3 length</t>
+  </si>
+  <si>
+    <t>metacarpal bone of digit 3 depth</t>
+  </si>
+  <si>
+    <t>metacarpal bone of digit 3 breadth</t>
+  </si>
+  <si>
+    <t>metacarpal bone of digit 3 proximal articular breadth</t>
+  </si>
+  <si>
+    <t>metacarpal bone of digit 3 distal articular breadth</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> M13</t>
+  </si>
+  <si>
+    <t>M14</t>
+  </si>
+  <si>
+    <t>metacarpal bone of digit 3 distal depth of lateral condyle</t>
   </si>
 </sst>
 </file>
@@ -1715,12 +1739,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1735,9 +1765,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2715,7 +2747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C69CCF6-5492-0A4C-9378-BA66BC6E8B2A}">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+    <sheetView topLeftCell="A38" workbookViewId="0">
       <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
@@ -3963,11 +3995,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F44ACC-71E7-344D-93EB-ED5246249B1F}">
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="51.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -4181,6 +4217,9 @@
         <v>252</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G19" t="s">
@@ -4192,6 +4231,9 @@
         <v>252</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>39</v>
       </c>
       <c r="G20" t="s">
@@ -4205,9 +4247,6 @@
       <c r="C21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F21" t="s">
-        <v>43</v>
-      </c>
       <c r="G21" t="s">
         <v>42</v>
       </c>
@@ -4220,7 +4259,7 @@
         <v>44</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>557</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -4228,23 +4267,23 @@
         <v>252</v>
       </c>
       <c r="C23" t="s">
+        <v>558</v>
+      </c>
+      <c r="D23" t="s">
         <v>46</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>252</v>
-      </c>
-      <c r="C24" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F24" t="s">
-        <v>49</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="G24" s="2" t="s">
         <v>40</v>
       </c>
     </row>
@@ -4267,6 +4306,9 @@
         <v>252</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F26" t="s">
@@ -4292,6 +4334,9 @@
         <v>252</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>53</v>
       </c>
       <c r="F28" t="s">
@@ -4306,6 +4351,9 @@
         <v>252</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F29" t="s">
@@ -4662,6 +4710,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -4670,7 +4719,7 @@
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
